--- a/data/hotels_by_city/Houston/Houston_shard_30.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="591">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55726-d73628-Reviews-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Deer-Park-Inn-Suites.h125472.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1647 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r582945156-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>73628</t>
+  </si>
+  <si>
+    <t>582945156</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Teller</t>
+  </si>
+  <si>
+    <t>These is a place that I definitely wouldn’t recommend. The service of the team was horrible anything wasn’t  done after I reported the issue. The  room we reserved was supposed to be non smoking room it ended up having a terrible smoke ordor as soon as I opened the doer to get in. There is also a very bad smell of humidity and the cleaning is really bad as well the furniture were dusted all around. We found like three bug around the room.the bath tube was not even clean either worst stay in my lifeMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>These is a place that I definitely wouldn’t recommend. The service of the team was horrible anything wasn’t  done after I reported the issue. The  room we reserved was supposed to be non smoking room it ended up having a terrible smoke ordor as soon as I opened the doer to get in. There is also a very bad smell of humidity and the cleaning is really bad as well the furniture were dusted all around. We found like three bug around the room.the bath tube was not even clean either worst stay in my lifeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r581339798-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>581339798</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t>Smells horrible. Musty as hell. Hot as hell when we walked in our room. It’s cooler outside than it is inside. Go somewhere else. Not worth the disappointment. Definitely not my kind of hotel.  I’m exhausted and just wanted to lay in bed and relax.  So much for that. It’s too hot.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded May 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2018</t>
+  </si>
+  <si>
+    <t>Smells horrible. Musty as hell. Hot as hell when we walked in our room. It’s cooler outside than it is inside. Go somewhere else. Not worth the disappointment. Definitely not my kind of hotel.  I’m exhausted and just wanted to lay in bed and relax.  So much for that. It’s too hot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r566744127-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>566744127</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School administrator </t>
+  </si>
+  <si>
+    <t>All I have to say is that the manager was very rude to two men while they were eating breakfast. These two men were sitting next to my table while they were eating breakfast and the manager came over very rudely and told them what room number they were in, obviously the men did not speak English and he continued to yell to them to show their ID’s. Whatever the problem was I know that the manager did not handle the situation well or in a professional manner. All he did was ruin a quiet morning and a great start to our day.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>All I have to say is that the manager was very rude to two men while they were eating breakfast. These two men were sitting next to my table while they were eating breakfast and the manager came over very rudely and told them what room number they were in, obviously the men did not speak English and he continued to yell to them to show their ID’s. Whatever the problem was I know that the manager did not handle the situation well or in a professional manner. All he did was ruin a quiet morning and a great start to our day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r539881019-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>539881019</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Smelled very bad</t>
+  </si>
+  <si>
+    <t>When I walked in the smell of the lobby was overpowering with carpet deodorizer.  When I arrived at the room they had the door wide open/airing it out. After the door was shut for a while I realized the room smelled very bad with mildew odor.  I requested a Ozone machine.  They installed one that looked to be about 50 years old.  The fan inside it wasn't turning so the thing couldn't possibly do any good.  It was so old and broken it was likely unsafe to sleep with.  I unplugged it to avoid a possible fire.  I stayed two of the four nights I reserved but relocated to a new hotel as soon as I found a vacancy.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2017</t>
+  </si>
+  <si>
+    <t>When I walked in the smell of the lobby was overpowering with carpet deodorizer.  When I arrived at the room they had the door wide open/airing it out. After the door was shut for a while I realized the room smelled very bad with mildew odor.  I requested a Ozone machine.  They installed one that looked to be about 50 years old.  The fan inside it wasn't turning so the thing couldn't possibly do any good.  It was so old and broken it was likely unsafe to sleep with.  I unplugged it to avoid a possible fire.  I stayed two of the four nights I reserved but relocated to a new hotel as soon as I found a vacancy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r520520775-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>520520775</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvey and the gougers </t>
+  </si>
+  <si>
+    <t>I stayed there for over a month. Told them when I moved in that I wanted a room  clear up until the end of October. Hurricane Harvey came along. We were told to evacuate by our company. I left and went home. They charged me rent during the week I wasn't able to use the room (I-45 was flooded..no way back down there)and then rented it out from under me when I came back so they could make more $$ off hurricane victims and the like by charging a nightly rate instead of the weekly rate I'd been paying. Worst Western if you ask me. I'll never stay in any of that chains hotels again. Low down and rotten ethics. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded September 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2017</t>
+  </si>
+  <si>
+    <t>I stayed there for over a month. Told them when I moved in that I wanted a room  clear up until the end of October. Hurricane Harvey came along. We were told to evacuate by our company. I left and went home. They charged me rent during the week I wasn't able to use the room (I-45 was flooded..no way back down there)and then rented it out from under me when I came back so they could make more $$ off hurricane victims and the like by charging a nightly rate instead of the weekly rate I'd been paying. Worst Western if you ask me. I'll never stay in any of that chains hotels again. Low down and rotten ethics. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r515384448-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>515384448</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Good staff, nice hotel, great room.</t>
+  </si>
+  <si>
+    <t>When you stay at a hotel you're just wanting to rent the bed for a while, not buy it. Here you get a great room for a good low rate. The hotel is located in a good spot where it is easy to come and go, the fitness room and pool were clean and in good shape, the room was nice and clean, and the breakfast was pretty good. There's restaurants within walking distance from the hotel and the staff were happy to help point out any areas of interest. Good service, good room, great price.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>When you stay at a hotel you're just wanting to rent the bed for a while, not buy it. Here you get a great room for a good low rate. The hotel is located in a good spot where it is easy to come and go, the fitness room and pool were clean and in good shape, the room was nice and clean, and the breakfast was pretty good. There's restaurants within walking distance from the hotel and the staff were happy to help point out any areas of interest. Good service, good room, great price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r508300194-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>508300194</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Very clean, friendly and a value for the price.</t>
+  </si>
+  <si>
+    <t>Always feel welcome here, everyone is friendly and happy to help. Rooms are kept clean and the breakfast selection is a lot more than other places. Good location, restaurants on both sides and nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Always feel welcome here, everyone is friendly and happy to help. Rooms are kept clean and the breakfast selection is a lot more than other places. Good location, restaurants on both sides and nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r505236779-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>505236779</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Weekend getaway from Dallas</t>
+  </si>
+  <si>
+    <t>Older Location but quiet and easy access to everything.  Great staff and clean rooms.  Easy check in and check out process and very polite and courteous staff and team. Short drive to NASA, Kemah, and Galveston which is why we stayed. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Older Location but quiet and easy access to everything.  Great staff and clean rooms.  Easy check in and check out process and very polite and courteous staff and team. Short drive to NASA, Kemah, and Galveston which is why we stayed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r500526845-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>500526845</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Best hotel around</t>
+  </si>
+  <si>
+    <t>Every time I'm in the Houston area, I stay at this hotel. The staff is always very friendly, rooms are always nice and clean, breakfast is always perfect...this is by far the best hotel around. Check it out if you're staying in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Every time I'm in the Houston area, I stay at this hotel. The staff is always very friendly, rooms are always nice and clean, breakfast is always perfect...this is by far the best hotel around. Check it out if you're staying in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r495294501-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>495294501</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Rob North Texas</t>
+  </si>
+  <si>
+    <t>This hotel is an older building meaning that there is not an elevator so the rooms open to the outside. However the property is very clean and well maintained. I'm a smoker so I like stepping  outside my room for a smoke. There are Restaurants Fast food and sit down all around this hotel and the staff are very friendly. I will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is an older building meaning that there is not an elevator so the rooms open to the outside. However the property is very clean and well maintained. I'm a smoker so I like stepping  outside my room for a smoke. There are Restaurants Fast food and sit down all around this hotel and the staff are very friendly. I will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r486567020-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>486567020</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Excellent Room and Service</t>
+  </si>
+  <si>
+    <t>We were in Deer Park for a memorial service for a relative and are rewards members.  The stayed two nights and really enjoyed the king sized bed in our suite.  It was one of the most comfortable beds we have experienced anywhere.  The suite was spacious and well appointed with all the conveniences.  Everything was operational and the room was very clean.  Breakfast was self serve, hot and something for everyone.  When in Deer Park you can't find a more convenient and friendly place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>We were in Deer Park for a memorial service for a relative and are rewards members.  The stayed two nights and really enjoyed the king sized bed in our suite.  It was one of the most comfortable beds we have experienced anywhere.  The suite was spacious and well appointed with all the conveniences.  Everything was operational and the room was very clean.  Breakfast was self serve, hot and something for everyone.  When in Deer Park you can't find a more convenient and friendly place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r473916106-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>473916106</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Great service and rooms</t>
+  </si>
+  <si>
+    <t>This two story exterior door hotel is a wonderful place to stay.   They were very pleasant at check in. He remembered the reunion we attended the last time we visited.    He was very eager to help with anything we needed.  He even made us fresh biscuits. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>This two story exterior door hotel is a wonderful place to stay.   They were very pleasant at check in. He remembered the reunion we attended the last time we visited.    He was very eager to help with anything we needed.  He even made us fresh biscuits. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r466202835-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>466202835</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Privacy and cleanliness...thank you!</t>
+  </si>
+  <si>
+    <t>Well, that was a roadside motel better than most 'Upscale' BWs I've stayed at in a while. Not fancy; totally roadside, but they know what they are doing. The room was old but CLEAN! Thank you. Smiling faces at the desk and at breakfast is awesome...I don't want Debbie Downers when I'm traveling! Thank you! 2.00 dollars for a Snickers Bar though, especially when you weren't given your FREE PLATINUM MEMBER SNACK or room upgrade upon arrival. I find the Best Western Rewards Program to be somewhat of a joke.Very careless, unconvicted corporate program, not to fault the individual property.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Well, that was a roadside motel better than most 'Upscale' BWs I've stayed at in a while. Not fancy; totally roadside, but they know what they are doing. The room was old but CLEAN! Thank you. Smiling faces at the desk and at breakfast is awesome...I don't want Debbie Downers when I'm traveling! Thank you! 2.00 dollars for a Snickers Bar though, especially when you weren't given your FREE PLATINUM MEMBER SNACK or room upgrade upon arrival. I find the Best Western Rewards Program to be somewhat of a joke.Very careless, unconvicted corporate program, not to fault the individual property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r464630547-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>464630547</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Two Nights in Houston</t>
+  </si>
+  <si>
+    <t>This is an OK hotel. A bit remote for us but it did the job. They offer a breakfast in the price of your room. Our room had an odor that eventually went away after we kept our door open for a time. The rooms are clean but pretty bare bones. Liked the idea of a fridge and microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>This is an OK hotel. A bit remote for us but it did the job. They offer a breakfast in the price of your room. Our room had an odor that eventually went away after we kept our door open for a time. The rooms are clean but pretty bare bones. Liked the idea of a fridge and microwave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r451883254-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>451883254</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Only issue I had was the refrigerator causing my snacks to melt and waisted.  The staff was very nice and helpful, and my room was clean and smelled nice even for a smoking room.  The locations is near restaurants and stores so no need to travel far.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded January 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2017</t>
+  </si>
+  <si>
+    <t>Only issue I had was the refrigerator causing my snacks to melt and waisted.  The staff was very nice and helpful, and my room was clean and smelled nice even for a smoking room.  The locations is near restaurants and stores so no need to travel far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r443663388-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>443663388</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable</t>
+  </si>
+  <si>
+    <t>We were in the area to see the San Jacinto Battlefield.  We only wanted one night and wanted a ground floor room.  The room was very spacious, although a little stale when we entered.  Location is good for everything we wanted.  Front desk clerk was a delight.  Breakfast was very good...Love those Texas waffles!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>We were in the area to see the San Jacinto Battlefield.  We only wanted one night and wanted a ground floor room.  The room was very spacious, although a little stale when we entered.  Location is good for everything we wanted.  Front desk clerk was a delight.  Breakfast was very good...Love those Texas waffles!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r431535090-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>431535090</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Manager did not keep his word.  Got sick from fresh paint in room</t>
+  </si>
+  <si>
+    <t>I booked this hotel for 3 nights as we were in town for a wedding.  We arrived late around 10:30pm.  The room had a smell I could not identify, but we had been traveling all day and I was tired.  That night I had 2 asthma attacks and did not sleep.  Only to find that the walls had fresh paint on them.  The bathroom door was still wet.  I was too sick to stay their and the manager apologized and said the hotel had just been renovated.  He would refund me all of my money.  That did not happen.  I called the hotel and Best Western Corporate to seek out help.  I was told that they would make this right and we are 11 days after the event and have not received a refund and Best Western will not return my call as they said they would.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>I booked this hotel for 3 nights as we were in town for a wedding.  We arrived late around 10:30pm.  The room had a smell I could not identify, but we had been traveling all day and I was tired.  That night I had 2 asthma attacks and did not sleep.  Only to find that the walls had fresh paint on them.  The bathroom door was still wet.  I was too sick to stay their and the manager apologized and said the hotel had just been renovated.  He would refund me all of my money.  That did not happen.  I called the hotel and Best Western Corporate to seek out help.  I was told that they would make this right and we are 11 days after the event and have not received a refund and Best Western will not return my call as they said they would.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r426913563-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>426913563</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Great Inn &amp; suites</t>
+  </si>
+  <si>
+    <t>Best Western Inn &amp; Suites,Deer Park,Texas  has been our favorite Hotel  to stay at when we are in the Deer Park area,f..or several years! The rooms are clean  &amp; modern furniture &amp; appliances are top quality...exceptional place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Best Western Inn &amp; Suites,Deer Park,Texas  has been our favorite Hotel  to stay at when we are in the Deer Park area,f..or several years! The rooms are clean  &amp; modern furniture &amp; appliances are top quality...exceptional place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r392344087-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>392344087</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Convenient, nice</t>
+  </si>
+  <si>
+    <t>We spent two nights and found everything satisfactory, including breakfast and our room. Location in Deer Park. The only recommendation: Consider asking to stay on the bottom floor rather than upstairs if you have luggage or mobility issues (no elevator).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>We spent two nights and found everything satisfactory, including breakfast and our room. Location in Deer Park. The only recommendation: Consider asking to stay on the bottom floor rather than upstairs if you have luggage or mobility issues (no elevator).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r391896610-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>391896610</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Mold</t>
+  </si>
+  <si>
+    <t>It is obvious that this hotel has been recently renovated. The rooms are nice and they are clean. The only bad thing is that as soon as you walk in the room there is a very very strong mold odor. I found out that they had been doing construction under the renovation and tore out a bunch of mold the wood floors and walls. I don't think they have found the cause of the mold in this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>It is obvious that this hotel has been recently renovated. The rooms are nice and they are clean. The only bad thing is that as soon as you walk in the room there is a very very strong mold odor. I found out that they had been doing construction under the renovation and tore out a bunch of mold the wood floors and walls. I don't think they have found the cause of the mold in this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r386857224-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>386857224</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Not a bad experience</t>
+  </si>
+  <si>
+    <t>The room was good enough for our overnight stay.  Asked for a late check out and were easily accommodated.  It wasn't fancy but the bed was comfortable and it suited our needs perfectly.  There was a slight "spoiled" odor coming from the area of the TV.  It wasn't overwhelming and we didn't notice right away.  It was just noticeable when we passed by the TV, which was weird.  Other than that - all was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>The room was good enough for our overnight stay.  Asked for a late check out and were easily accommodated.  It wasn't fancy but the bed was comfortable and it suited our needs perfectly.  There was a slight "spoiled" odor coming from the area of the TV.  It wasn't overwhelming and we didn't notice right away.  It was just noticeable when we passed by the TV, which was weird.  Other than that - all was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r368324230-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>368324230</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>We were staying outside of Houston and Deer Park was close to a lot of things that we wanted to travel to.  The town itself is very small and quiet with not much to see/do.  We booked our room on Orbitz and it did not allow us to select smoking/nonsmoking.  We ended up being assigned a smoking room, which reeked of smoke.  The excellent woman at the counter was able to get us a nonsmoking room, but with two full beds not a king as requested.  It worked okay, but we definitely would have preferred a bigger bed for comfort.  The room itself smelled terribly musty, but overall seemed clean.  Everything was in working order, but definitely in need of an update.  I'm not a big fan of motels in general, I always feel safer with a lobby and only a few locked entries to the outside, so having a room door right to the outside is a negative for me (although it was definitely my fault for booking a motel vs a hotel).  Breakfast was good and always a nice perk.  We couldn't use the pool because of terrible weather, but it was small and looked decent.  Overall, it wasn't terrible, but for the money, I would have preferred something that didn't have that smell and felt a little safer overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>DineshPDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>We were staying outside of Houston and Deer Park was close to a lot of things that we wanted to travel to.  The town itself is very small and quiet with not much to see/do.  We booked our room on Orbitz and it did not allow us to select smoking/nonsmoking.  We ended up being assigned a smoking room, which reeked of smoke.  The excellent woman at the counter was able to get us a nonsmoking room, but with two full beds not a king as requested.  It worked okay, but we definitely would have preferred a bigger bed for comfort.  The room itself smelled terribly musty, but overall seemed clean.  Everything was in working order, but definitely in need of an update.  I'm not a big fan of motels in general, I always feel safer with a lobby and only a few locked entries to the outside, so having a room door right to the outside is a negative for me (although it was definitely my fault for booking a motel vs a hotel).  Breakfast was good and always a nice perk.  We couldn't use the pool because of terrible weather, but it was small and looked decent.  Overall, it wasn't terrible, but for the money, I would have preferred something that didn't have that smell and felt a little safer overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r367078270-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>367078270</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>just a good nights stay for a good price</t>
+  </si>
+  <si>
+    <t>this is a good place hotel to spend a few nights at the host are always friendly and willing to help you with all your needs have always had very good experiences when i stay with them it is also centrally located to a large number of restaurants and other amenitiesMoreShow less</t>
+  </si>
+  <si>
+    <t>this is a good place hotel to spend a few nights at the host are always friendly and willing to help you with all your needs have always had very good experiences when i stay with them it is also centrally located to a large number of restaurants and other amenitiesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r365551244-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>365551244</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel to anyone rooms were very clean, beds comfortable, location has washer and dryers reasonable priced. Location near freeway and many restaurants very convenient.  The Italian restaurant down the street was great..MoreShow less</t>
+  </si>
+  <si>
+    <t>DineshPDeerPark, Owner at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel to anyone rooms were very clean, beds comfortable, location has washer and dryers reasonable priced. Location near freeway and many restaurants very convenient.  The Italian restaurant down the street was great..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r348558483-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>348558483</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>DO NOT STAY AT BEST WESTERN DEER PARK</t>
+  </si>
+  <si>
+    <t>After a year of conversation and exchanging information, Best Western Deer Park has cheated me out of $961.66.  I reserved two rooms at Best Western, cancelled those reservations, then later reserved the same two rooms (again).  After my stay in a dirty room, I was billed for four rooms.  Best Western refuses to refund me for two of the rooms.  After my attorney sent them a letter, they still refused.  My only resort was to travel to Harris County, file a lawsuit, then wait in Houston the court date.  The big corporation wins again because I cannot afford to make the trip and stay down there long enough for court.  The free breakfast at Best Western was not edible - eggs were rubbery and cold and the meat was cold and undesirable.  The carpet was filthy (take a look at my socks) and my room amenities (cups, soaps, etc.) were never replenished after my arrival.  I WOULD NOT ADVISE ANYONE TO STAY AT THE BEST WESTERN DEER PARK HOTEL.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>DineshPDeerPark, Owner at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded February 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2016</t>
+  </si>
+  <si>
+    <t>After a year of conversation and exchanging information, Best Western Deer Park has cheated me out of $961.66.  I reserved two rooms at Best Western, cancelled those reservations, then later reserved the same two rooms (again).  After my stay in a dirty room, I was billed for four rooms.  Best Western refuses to refund me for two of the rooms.  After my attorney sent them a letter, they still refused.  My only resort was to travel to Harris County, file a lawsuit, then wait in Houston the court date.  The big corporation wins again because I cannot afford to make the trip and stay down there long enough for court.  The free breakfast at Best Western was not edible - eggs were rubbery and cold and the meat was cold and undesirable.  The carpet was filthy (take a look at my socks) and my room amenities (cups, soaps, etc.) were never replenished after my arrival.  I WOULD NOT ADVISE ANYONE TO STAY AT THE BEST WESTERN DEER PARK HOTEL.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r346682038-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>346682038</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>In need of refurbishment.</t>
+  </si>
+  <si>
+    <t>This is an old property that needs to have new carpets installed and upgrades to the furnishings in the rooms. It is definitely not a positive advertisement for Best Western, and the price was quite high at over $144 for the room that was not clean and had a bad smell. We were there one night before our cruise departure and I would not stay there again. The free hot breakfast was the worst I have ever had. I had to ask the only employee in the reception area (who also worked the front desk) to cook me some eggs and make coffee since they were all gone when I arrived with still 30 minutes left for breakfast. He begrudgingly did so.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>DineshPDeerPark, Owner at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded February 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2016</t>
+  </si>
+  <si>
+    <t>This is an old property that needs to have new carpets installed and upgrades to the furnishings in the rooms. It is definitely not a positive advertisement for Best Western, and the price was quite high at over $144 for the room that was not clean and had a bad smell. We were there one night before our cruise departure and I would not stay there again. The free hot breakfast was the worst I have ever had. I had to ask the only employee in the reception area (who also worked the front desk) to cook me some eggs and make coffee since they were all gone when I arrived with still 30 minutes left for breakfast. He begrudgingly did so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r345317033-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>345317033</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>Great stay in Deer Park</t>
+  </si>
+  <si>
+    <t>Had to attend safety council classes and in house training in Deer Park. This is a definite return spot if I am back in the area. The room was incredible spacious and quiet. No outside noise at all. Slept well.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>DineshPDeerPark, Owner at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded February 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2016</t>
+  </si>
+  <si>
+    <t>Had to attend safety council classes and in house training in Deer Park. This is a definite return spot if I am back in the area. The room was incredible spacious and quiet. No outside noise at all. Slept well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r341107003-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>341107003</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Dangerous showers</t>
+  </si>
+  <si>
+    <t>The handles for getting out of the shower safely are installed on the end by the toilet, so there is no room to use them.  You have to get out with no place to grab, which is why my wife had a painful fall.  Also the door keys kept refusing to work every day, although we had checked in for two nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>The handles for getting out of the shower safely are installed on the end by the toilet, so there is no room to use them.  You have to get out with no place to grab, which is why my wife had a painful fall.  Also the door keys kept refusing to work every day, although we had checked in for two nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r332768529-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>332768529</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Nice Older Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here before leaving for a cruise. The hotel is older but nicely maintained and they were working on some rooms when we were there. The room was nice enough and fit our needs. Even better it was close to family we wanted to visit. The staff was pleasant and helpful. In all, a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>David C, Owner at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here before leaving for a cruise. The hotel is older but nicely maintained and they were working on some rooms when we were there. The room was nice enough and fit our needs. Even better it was close to family we wanted to visit. The staff was pleasant and helpful. In all, a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r330626304-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>330626304</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel!</t>
+  </si>
+  <si>
+    <t>I was surprised how nice the Hotel was for the price that I paid! Very Nice! I was also very happy with the service. The people seem so nice here! They went out of their way to make our stay really nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>David C, Owner at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2015</t>
+  </si>
+  <si>
+    <t>I was surprised how nice the Hotel was for the price that I paid! Very Nice! I was also very happy with the service. The people seem so nice here! They went out of their way to make our stay really nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r321783617-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>321783617</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Best Western in Deer Park, Texas</t>
+  </si>
+  <si>
+    <t>This hotel for the money per night seemed ok our biggest issue was the strong musty smell in the the room which was probably because of the humidity. That is something we are not used to. Hotel was quiet and staff were friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>This hotel for the money per night seemed ok our biggest issue was the strong musty smell in the the room which was probably because of the humidity. That is something we are not used to. Hotel was quiet and staff were friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r308409326-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>308409326</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Short &amp; Sweet</t>
+  </si>
+  <si>
+    <t>We went to Houston to visit family and didn't want to spen alot of money so we chose the Best western,  To our surprise the hotel execeeded our expectation.  The rooms were clean and comfortable.  The area was clean and quiete and close to all shopping areas.  The staff was helpful and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>We went to Houston to visit family and didn't want to spen alot of money so we chose the Best western,  To our surprise the hotel execeeded our expectation.  The rooms were clean and comfortable.  The area was clean and quiete and close to all shopping areas.  The staff was helpful and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r306542305-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>306542305</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>I loved it!</t>
+  </si>
+  <si>
+    <t>This was one of the best Best Western stays I've ever had. The hotel was great, the room was comfortable and the breakfast was good. The area had lots of places to eat. For someone traveling on business, it's an ideal place to stay. I would recommend this hotel to anyone who is looking for a great place to stay in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>This was one of the best Best Western stays I've ever had. The hotel was great, the room was comfortable and the breakfast was good. The area had lots of places to eat. For someone traveling on business, it's an ideal place to stay. I would recommend this hotel to anyone who is looking for a great place to stay in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r287799990-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>287799990</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Best bang for the buck!</t>
+  </si>
+  <si>
+    <t>Excellent everything, the breakfast was very tasty, very comfortable beds, smells very nice, everything looks like its cleaned with detail. The pool is very clean. we stayed during the July 4th weekend and the Deer Park had a spectacular fireworks show right in front.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Excellent everything, the breakfast was very tasty, very comfortable beds, smells very nice, everything looks like its cleaned with detail. The pool is very clean. we stayed during the July 4th weekend and the Deer Park had a spectacular fireworks show right in front.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r286265255-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>286265255</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>No breakfast/dirty moldy bathroom</t>
+  </si>
+  <si>
+    <t>There was no food at breakfast at 8:30 and we were told they would not be making more/breakfast was to close at 10.This happened both morning we were there. There was black mold around the tub in our room. We were left  2 conditioners and 1 half used lotion.MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>There was no food at breakfast at 8:30 and we were told they would not be making more/breakfast was to close at 10.This happened both morning we were there. There was black mold around the tub in our room. We were left  2 conditioners and 1 half used lotion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r282531705-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>282531705</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Dance Recital</t>
+  </si>
+  <si>
+    <t>Went to Deer Park for my niece's dance recital.  The hotel was comfortable, staff was great and helpful and location was perfect for this trip.  The room was very clean.  I really enjoyed staying at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Went to Deer Park for my niece's dance recital.  The hotel was comfortable, staff was great and helpful and location was perfect for this trip.  The room was very clean.  I really enjoyed staying at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r279854368-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>279854368</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Not The Best Stay</t>
+  </si>
+  <si>
+    <t>Room carpet was filty, towels not replenished, did not receive cups except for what was in the room when I arrived, front desk did not cancel my initial reservations when I called and emailed my notice to cancel; afterhours staff appeared to be frustrated when I asked for something; breakfast was cool or cold, biscuits were unedible, sausage was not cooked thoroughly...  We will not stay at this Best Western on our next vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Owner at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded June 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2015</t>
+  </si>
+  <si>
+    <t>Room carpet was filty, towels not replenished, did not receive cups except for what was in the room when I arrived, front desk did not cancel my initial reservations when I called and emailed my notice to cancel; afterhours staff appeared to be frustrated when I asked for something; breakfast was cool or cold, biscuits were unedible, sausage was not cooked thoroughly...  We will not stay at this Best Western on our next vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r275209667-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>275209667</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Chose this Best Western due to the close proximity of the Johnson Space Center. Deer Park gives visions of peace, serenity,  luscious green trees etc. No green trees , it's in an industrial area. The room was moldy and had a musty smell. I visited the room of another travelling partner - their room has the same smell. I usually turn off the air conditioning in the night, on this occasion I ran the AC to circulate the air. Manager recommended Antonio's Italian Restaurant which was very good with reasonable prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Chose this Best Western due to the close proximity of the Johnson Space Center. Deer Park gives visions of peace, serenity,  luscious green trees etc. No green trees , it's in an industrial area. The room was moldy and had a musty smell. I visited the room of another travelling partner - their room has the same smell. I usually turn off the air conditioning in the night, on this occasion I ran the AC to circulate the air. Manager recommended Antonio's Italian Restaurant which was very good with reasonable prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r268989442-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>268989442</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Everything I needed for 7 days at my 50th class reunion. Centrally located, drive-up to your room, and all the amenities. The breakfast was wonderful and saved us from having to get dressed up in the morning plus the newspaper was always there.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>David C, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded April 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2015</t>
+  </si>
+  <si>
+    <t>Everything I needed for 7 days at my 50th class reunion. Centrally located, drive-up to your room, and all the amenities. The breakfast was wonderful and saved us from having to get dressed up in the morning plus the newspaper was always there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r261444163-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>261444163</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay.</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a few times.  The grounds are well kept, and the owner has pretty flowers planted in the entryway. The rooms are nice and always clean, and they have large relaxing whirlpool tubs in some rooms.  The desk staff are always very friendly and helpful. They have renovated and the front reception/breakfast area is very modern, attractive and comfortable. They serve a nice continental breakfast with many selections. If you don't like that, there is a McDonalds right next door, and other eating places nearby. The pool and hot tub are well kept, so pack a swimsuit. The hotel is quiet at night, so you are assured a good nights sleep. There are other more expensive hotels in the area, but this is a bargain.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a few times.  The grounds are well kept, and the owner has pretty flowers planted in the entryway. The rooms are nice and always clean, and they have large relaxing whirlpool tubs in some rooms.  The desk staff are always very friendly and helpful. They have renovated and the front reception/breakfast area is very modern, attractive and comfortable. They serve a nice continental breakfast with many selections. If you don't like that, there is a McDonalds right next door, and other eating places nearby. The pool and hot tub are well kept, so pack a swimsuit. The hotel is quiet at night, so you are assured a good nights sleep. There are other more expensive hotels in the area, but this is a bargain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r256223854-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>256223854</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Needed a good nights sleep</t>
+  </si>
+  <si>
+    <t>Having sold my house and staying with relatives we needed to spend some quality family time.  I was glad I booked this hotel.  We got a good nights sleep which was much needed.  I would highly recommend this hotel to anyone needing a place to stay in the Deer Park, Texas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Having sold my house and staying with relatives we needed to spend some quality family time.  I was glad I booked this hotel.  We got a good nights sleep which was much needed.  I would highly recommend this hotel to anyone needing a place to stay in the Deer Park, Texas area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r255543675-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>255543675</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Pleasurable</t>
+  </si>
+  <si>
+    <t>Nice, clean room. Friendly staff. We have stayed here many times while in town on business. The property and the rooms are very nice and clean. There are many good places to eat near by. Location is really convenient to local industry.MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded February 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2015</t>
+  </si>
+  <si>
+    <t>Nice, clean room. Friendly staff. We have stayed here many times while in town on business. The property and the rooms are very nice and clean. There are many good places to eat near by. Location is really convenient to local industry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r244131939-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>244131939</t>
+  </si>
+  <si>
+    <t>12/12/2014</t>
+  </si>
+  <si>
+    <t>OK but......</t>
+  </si>
+  <si>
+    <t>Great comfortable room for $80 or so if it would actually cost that much.....too bad it cost over $120 after taxes. But it's not just this hotel. All hotels in area seem to be 30-50% higher than average. No room issues; breakfast area clean with typical choices, maybe a little less than average. Was OK for one night but I expect more for my money.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2014</t>
+  </si>
+  <si>
+    <t>Great comfortable room for $80 or so if it would actually cost that much.....too bad it cost over $120 after taxes. But it's not just this hotel. All hotels in area seem to be 30-50% higher than average. No room issues; breakfast area clean with typical choices, maybe a little less than average. Was OK for one night but I expect more for my money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r243802971-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>243802971</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>Stayed overnight  to be close to the Cruise ship we were taking the next day it turned out to be super close and we were not hurried to get to it. It was clean and rooms were great. service was pleasant and breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Rush P, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2014</t>
+  </si>
+  <si>
+    <t>Stayed overnight  to be close to the Cruise ship we were taking the next day it turned out to be super close and we were not hurried to get to it. It was clean and rooms were great. service was pleasant and breakfast was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r226835667-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>226835667</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Perfect for business</t>
+  </si>
+  <si>
+    <t>If you are in Deer Park for business, this might be a good option.Is quite central and easy to access.The staff is very attentive and fast. The fact that all rooms have outside access near to the parking lot helps if you are carrying luggage or want to keep an eye in your car.The room is simple but nice. Large TV, coffee maker and ironing equipment.For a short stay is more than enough.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r210110804-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>210110804</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Very nice accommodations</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last year, so a return visit was pretty well guaranteed.  The staff and management genuinely care about what they are doing.  Exterior and interior are spotless.  My room was clean, comfortable and everything worked as it should.  Breakfast was well above average with hot  scrambled eggs, sausage, bacon biscuits as well as the usual cold cereals, cold juices, breads, danish, muffins. The room was quiet with little traffic noise. Will stay there again and ill recommend to friends.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r207053387-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>207053387</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Inexpensive, quite close to Houston/Galveston</t>
+  </si>
+  <si>
+    <t>Not frills, but easy on the wallet, clean and quite. Exercise room had to myself each morning, breakfast simple. was not able to use washer/dryer, was always busy ;(  went to local laundramat. Choices of eating places and shopping near by.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r204340463-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>204340463</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Why aren't SIX stars a thing?</t>
+  </si>
+  <si>
+    <t>I love the staff at the Deer Park Inn &amp; Suites. Lovely folks that go above and beyond to make their customers feel more than welcome. I look forward to deal with this staff in the future. The location makes it easy to travel, whether it be local, or involves hopping on the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Rush P, Guest Relations Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded May 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2014</t>
+  </si>
+  <si>
+    <t>I love the staff at the Deer Park Inn &amp; Suites. Lovely folks that go above and beyond to make their customers feel more than welcome. I look forward to deal with this staff in the future. The location makes it easy to travel, whether it be local, or involves hopping on the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r193314235-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>193314235</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Very polite welcome!</t>
+  </si>
+  <si>
+    <t>The man who checked us in was very polite &amp; friendly. I would have given a 10 out of 10 rating if it wasn't for the hair I found in the bathroom from the previous guest! Other than that, the room was lovely - very clean &amp; tidy. The fridge made a loud humming sound, so we turned it off. It didn't bother us enough to complain about it. Overall a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Rush P, Guest Relations Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded February 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2014</t>
+  </si>
+  <si>
+    <t>The man who checked us in was very polite &amp; friendly. I would have given a 10 out of 10 rating if it wasn't for the hair I found in the bathroom from the previous guest! Other than that, the room was lovely - very clean &amp; tidy. The fridge made a loud humming sound, so we turned it off. It didn't bother us enough to complain about it. Overall a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r191802806-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>191802806</t>
+  </si>
+  <si>
+    <t>01/23/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay.</t>
+  </si>
+  <si>
+    <t>Nice little place to Stay. I prefer best westerns over the other more expensive hotels. These rooms are just as nice and you don't have to go up and down an elevator daily. I'd rather be able to go right outside my room and have some fresh air, rather that have a huge lobby that does nothing for me. I also like that they use pantene shampoo, that is what I use at home.  Another Plus for me is that there is a Popeyes and a BK next door. I would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Rush P, Guest Relations Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded January 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2014</t>
+  </si>
+  <si>
+    <t>Nice little place to Stay. I prefer best westerns over the other more expensive hotels. These rooms are just as nice and you don't have to go up and down an elevator daily. I'd rather be able to go right outside my room and have some fresh air, rather that have a huge lobby that does nothing for me. I also like that they use pantene shampoo, that is what I use at home.  Another Plus for me is that there is a Popeyes and a BK next door. I would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r187591234-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>187591234</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>Mice!!!!!!!!</t>
+  </si>
+  <si>
+    <t>MIce was in my room. and the staff only moved me to another room doesn't mean that the set up any service to deal with the rodent issue. Very disSatisfied with MIce being in the room! I feel like i should have been given somethingMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Rush P, Guest Relations Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2013</t>
+  </si>
+  <si>
+    <t>MIce was in my room. and the staff only moved me to another room doesn't mean that the set up any service to deal with the rodent issue. Very disSatisfied with MIce being in the room! I feel like i should have been given somethingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r177860688-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>177860688</t>
+  </si>
+  <si>
+    <t>09/19/2013</t>
+  </si>
+  <si>
+    <t>Exceptional Stay</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel to anyone staying in the Houston area. The facilities are well cared for and very clean. The staff are very gracious and friendly. The rooms are very comfortable, including the beds (I stay in one of the king suites)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Rush P, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded September 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2013</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel to anyone staying in the Houston area. The facilities are well cared for and very clean. The staff are very gracious and friendly. The rooms are very comfortable, including the beds (I stay in one of the king suites)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r171560974-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>171560974</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>NIce, basic accommodaitons</t>
+  </si>
+  <si>
+    <t>This Best Western is a nice place to stay.  I was in Deer Park on business, needed basic accommodations without the frills of doormen, chocolate truffles on the pillow, etc.. The room was comfortable, everything worked, good aircon for that Houston August oppressive heat &amp; humidity.  The interior and exterior are very well maintained and in good order.  Breakfast was self service with good choice of hot and cold foods, excellent orange juice.  Internet access in my room suited my needs, no slowdowns or problems.  The neighborhood is OK and was quiet at night.  There are several fast food places close by, about six within a three minute walk. Will return if I'm in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Rush P, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded August 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2013</t>
+  </si>
+  <si>
+    <t>This Best Western is a nice place to stay.  I was in Deer Park on business, needed basic accommodations without the frills of doormen, chocolate truffles on the pillow, etc.. The room was comfortable, everything worked, good aircon for that Houston August oppressive heat &amp; humidity.  The interior and exterior are very well maintained and in good order.  Breakfast was self service with good choice of hot and cold foods, excellent orange juice.  Internet access in my room suited my needs, no slowdowns or problems.  The neighborhood is OK and was quiet at night.  There are several fast food places close by, about six within a three minute walk. Will return if I'm in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r169388170-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>169388170</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>SE TEXAS BUSINESS TRIP</t>
+  </si>
+  <si>
+    <t>Not sure what it takes for a estwestern motel to earn the "PLUS" rating, but this motel definetly qualifies. Nice oversized room, easy access to area business..Overall a very enjoyable place to work from.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Rush P, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Not sure what it takes for a estwestern motel to earn the "PLUS" rating, but this motel definetly qualifies. Nice oversized room, easy access to area business..Overall a very enjoyable place to work from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r162053816-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>162053816</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>love this hotel.</t>
+  </si>
+  <si>
+    <t>went to this hotel over memorial day. hands down is one of the best Best Westerns around. Room was clean. staff was friendly and very helpful. Had to drive a little bit to get to the beach but it was well worth it. will definitly use this one again when in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Rush P, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2013</t>
+  </si>
+  <si>
+    <t>went to this hotel over memorial day. hands down is one of the best Best Westerns around. Room was clean. staff was friendly and very helpful. Had to drive a little bit to get to the beach but it was well worth it. will definitly use this one again when in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r160839733-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>160839733</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Quick Stay</t>
+  </si>
+  <si>
+    <t>I stayed at this Best Western over Mother's Day while visiting my son. I needed to stay somewhere that I could get a the Super shuttle to the Hobby Airport for my return flight home. I was plesantly surprised by this hotel stay. Friendly staff, quite, good clean room, shower, and comfortable beds. The full breakfast was nice to have for an early morning checkout time, along with a decent eating area. Although I did not have time to enjoy the pool and hot tub, they looked clean inviting and well kept. I would recommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at this Best Western over Mother's Day while visiting my son. I needed to stay somewhere that I could get a the Super shuttle to the Hobby Airport for my return flight home. I was plesantly surprised by this hotel stay. Friendly staff, quite, good clean room, shower, and comfortable beds. The full breakfast was nice to have for an early morning checkout time, along with a decent eating area. Although I did not have time to enjoy the pool and hot tub, they looked clean inviting and well kept. I would recommend this hotel to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r153589975-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>153589975</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Another Success</t>
+  </si>
+  <si>
+    <t>I am in my 2nd year of using this Bestwestern Hotel in Deer Park for all my business meetings when in the Houston area. I have found the accomodations to be very good for the price but what keeps me coming back is the exceptional treatment from the staff.It's hard to be away from home weeks at a time, but but when I come here Rush and his team make me feel like family.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Rush P, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded March 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2013</t>
+  </si>
+  <si>
+    <t>I am in my 2nd year of using this Bestwestern Hotel in Deer Park for all my business meetings when in the Houston area. I have found the accomodations to be very good for the price but what keeps me coming back is the exceptional treatment from the staff.It's hard to be away from home weeks at a time, but but when I come here Rush and his team make me feel like family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r148394947-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>148394947</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>12/28/12 No Mildew/Mold</t>
+  </si>
+  <si>
+    <t>We stayed in Room 107. Nice room at a fair price. Staff was nice and attentive. Almost did not book this hotel because of this blog's comments. My family will stay here again if we need to. Have family living in Pasadena. If we have large family functions, we need to book a hotel room due to lack of space at my sister's house. Stacy Suits, Austin, TX.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r140724143-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>140724143</t>
+  </si>
+  <si>
+    <t>09/19/2012</t>
+  </si>
+  <si>
+    <t>Mildew/Damp</t>
+  </si>
+  <si>
+    <t>We stayed here recently, &amp; like 2 other reviewers found the smell of damp overwhelming. We were moved to another room, but the smell was the same.The bedding &amp; carpet had a cold, damp feel to them, and there was mildew on the ceiling in the bathroom. I managed to get through the night, but couldn't wait to check out the next morning. Surely it's not healthy to sleep in such an environment for too long.Other than that, the rooms were very spacious.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r140033723-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>140033723</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel in a nice area</t>
+  </si>
+  <si>
+    <t>This hotel is really nice, the rooms are big with a refrigerator and a microwave in every room. They offer a real breakfast every morning, free. The breakfast is fresh and delicious, Eggs, Sausage, orange juice, cereal and other breakfast items are served. The hotel is located in between a chicken place and a Mc Donalds. Other places to eat are located along both sides of the street. The bed is comfortable and an additional blanket is offered for your comfort. A good place to stay when visiting Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r128624553-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>128624553</t>
+  </si>
+  <si>
+    <t>04/25/2012</t>
+  </si>
+  <si>
+    <t>The smell of mildew is still there</t>
+  </si>
+  <si>
+    <t>Just read the feedback regarding the smell and can confirm that the smell is still there. No idea when the flood was but the management had enough time to fix it. Ordinary air fresher can do the best plus - open the doors for couple of hours!If you really want to sleep you get used to anything. But we had a huge desire to sleep with opened door or window. Only our soap, shampoo and parfumerie helped to spirit away the smell (little bit). All the rest stuff was as usuall: tea/coffee, toasts and waffles</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r124867916-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>124867916</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Houston stay</t>
+  </si>
+  <si>
+    <t>This is a great place to stay. Had no problems at all. Check-in a little slow , due to me having a gift card. But the room was very comfortable. Great place to stay if you dont wanna stay in the big city.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r123558426-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>123558426</t>
+  </si>
+  <si>
+    <t>01/24/2012</t>
+  </si>
+  <si>
+    <t>Amazing comfortable clean friendly people!!!</t>
+  </si>
+  <si>
+    <t>We left here a couple of hours ago for a day trip. I must say it was wonderful I stayed all day!!! It was comfortable and homey I am use to being home all of the time so it was nice to feel comfortable everyone was very nice!!! It was a wonderful experience and we will be going back soon!!! they are really nicely updated also nice big tv we enjoyed it :)MoreShow less</t>
+  </si>
+  <si>
+    <t>BWDPInn, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded January 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2012</t>
+  </si>
+  <si>
+    <t>We left here a couple of hours ago for a day trip. I must say it was wonderful I stayed all day!!! It was comfortable and homey I am use to being home all of the time so it was nice to feel comfortable everyone was very nice!!! It was a wonderful experience and we will be going back soon!!! they are really nicely updated also nice big tv we enjoyed it :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r114745279-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>114745279</t>
+  </si>
+  <si>
+    <t>06/25/2011</t>
+  </si>
+  <si>
+    <t>Mildew...</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for 2 nights this week as we were in town visiting my home town. The rooms are pretty nice for a Best Western, obviously have been redone/updated recently with new furniture. However upon entering the room we were overcome with a VERY VERY potent smell of what what clearly mildew. We had out premature baby with us, which made me a little worried. I went to the front desk after a few hours later and we were all starting to feel a little nausious. I asked the girl at the front desk if the place had flooded in the last big hurricane (i know the town well) and she said she was not employed at the time. She was nice enough to let me go and check out 2 other rooms (one was the room right under ours on the 1st floor &amp; the other on the other side of the hotel) one was FAR worse smelling than ours, the other about the same. When I came back to return those hotel card/keys the owner/manager/man was at the desk. when i told him that the other rooms were more smelly he just said "no, i dont know what your talking about" I asked him if the place flooded, and he said yes, through the roof but everything was redone. He is right that things were redone, but the mildew is still there. you can...My family and I stayed here for 2 nights this week as we were in town visiting my home town. The rooms are pretty nice for a Best Western, obviously have been redone/updated recently with new furniture. However upon entering the room we were overcome with a VERY VERY potent smell of what what clearly mildew. We had out premature baby with us, which made me a little worried. I went to the front desk after a few hours later and we were all starting to feel a little nausious. I asked the girl at the front desk if the place had flooded in the last big hurricane (i know the town well) and she said she was not employed at the time. She was nice enough to let me go and check out 2 other rooms (one was the room right under ours on the 1st floor &amp; the other on the other side of the hotel) one was FAR worse smelling than ours, the other about the same. When I came back to return those hotel card/keys the owner/manager/man was at the desk. when i told him that the other rooms were more smelly he just said "no, i dont know what your talking about" I asked him if the place flooded, and he said yes, through the roof but everything was redone. He is right that things were redone, but the mildew is still there. you can see about 1 foot of sheetrock that was carved out at the top of the walls (not the roof).  so you can see that cosmetically the place is ok, but in all seriousness....if you have any heath related problems, asthma, lungs, this is NOT the place for you. I REALLY is overwhelming with a mildew smell.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>BWDPInn, Guest Relations Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2011</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for 2 nights this week as we were in town visiting my home town. The rooms are pretty nice for a Best Western, obviously have been redone/updated recently with new furniture. However upon entering the room we were overcome with a VERY VERY potent smell of what what clearly mildew. We had out premature baby with us, which made me a little worried. I went to the front desk after a few hours later and we were all starting to feel a little nausious. I asked the girl at the front desk if the place had flooded in the last big hurricane (i know the town well) and she said she was not employed at the time. She was nice enough to let me go and check out 2 other rooms (one was the room right under ours on the 1st floor &amp; the other on the other side of the hotel) one was FAR worse smelling than ours, the other about the same. When I came back to return those hotel card/keys the owner/manager/man was at the desk. when i told him that the other rooms were more smelly he just said "no, i dont know what your talking about" I asked him if the place flooded, and he said yes, through the roof but everything was redone. He is right that things were redone, but the mildew is still there. you can...My family and I stayed here for 2 nights this week as we were in town visiting my home town. The rooms are pretty nice for a Best Western, obviously have been redone/updated recently with new furniture. However upon entering the room we were overcome with a VERY VERY potent smell of what what clearly mildew. We had out premature baby with us, which made me a little worried. I went to the front desk after a few hours later and we were all starting to feel a little nausious. I asked the girl at the front desk if the place had flooded in the last big hurricane (i know the town well) and she said she was not employed at the time. She was nice enough to let me go and check out 2 other rooms (one was the room right under ours on the 1st floor &amp; the other on the other side of the hotel) one was FAR worse smelling than ours, the other about the same. When I came back to return those hotel card/keys the owner/manager/man was at the desk. when i told him that the other rooms were more smelly he just said "no, i dont know what your talking about" I asked him if the place flooded, and he said yes, through the roof but everything was redone. He is right that things were redone, but the mildew is still there. you can see about 1 foot of sheetrock that was carved out at the top of the walls (not the roof).  so you can see that cosmetically the place is ok, but in all seriousness....if you have any heath related problems, asthma, lungs, this is NOT the place for you. I REALLY is overwhelming with a mildew smell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r106710833-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>106710833</t>
+  </si>
+  <si>
+    <t>05/03/2011</t>
+  </si>
+  <si>
+    <t>Great Bed, Great Service and Value.</t>
+  </si>
+  <si>
+    <t>Went to the NHRA dragraces and stayed here in Deer Park. Bed was huge and comfortable, service was quick and nice. Good hot full breakfast. Clean Rooms !! Will stay here again for the dragraces again next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>BWDPInn, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 15, 2011</t>
+  </si>
+  <si>
+    <t>Went to the NHRA dragraces and stayed here in Deer Park. Bed was huge and comfortable, service was quick and nice. Good hot full breakfast. Clean Rooms !! Will stay here again for the dragraces again next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r84456909-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>84456909</t>
+  </si>
+  <si>
+    <t>10/22/2010</t>
+  </si>
+  <si>
+    <t>It was okay but...</t>
+  </si>
+  <si>
+    <t>I stayed here on a business trip. Our meetings were booked in the hotel conference room. The rooms were average size and style. The bed was a little hard for me and the fact that I became breakfast, lunch and dinner in the middle of the night was an unpleasent suprise to me. I would have to say I would not be able to highly recommend my room, the room on either side or the one below it to a friend, if you know what I mean.Good luck!</t>
+  </si>
+  <si>
+    <t>August 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2182,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2214,4581 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>187</v>
+      </c>
+      <c r="X17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>195</v>
+      </c>
+      <c r="X18" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>203</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>117</v>
+      </c>
+      <c r="X19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>210</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>211</v>
+      </c>
+      <c r="X20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s">
+        <v>218</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>117</v>
+      </c>
+      <c r="X21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>226</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>227</v>
+      </c>
+      <c r="X22" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>236</v>
+      </c>
+      <c r="X23" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>117</v>
+      </c>
+      <c r="X24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>268</v>
+      </c>
+      <c r="X27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>276</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>277</v>
+      </c>
+      <c r="X28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>289</v>
+      </c>
+      <c r="J30" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>293</v>
+      </c>
+      <c r="O30" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>294</v>
+      </c>
+      <c r="X30" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>298</v>
+      </c>
+      <c r="J31" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s">
+        <v>301</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>302</v>
+      </c>
+      <c r="O31" t="s">
+        <v>116</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>303</v>
+      </c>
+      <c r="X31" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>307</v>
+      </c>
+      <c r="J32" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" t="s">
+        <v>309</v>
+      </c>
+      <c r="L32" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>311</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>312</v>
+      </c>
+      <c r="X32" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>315</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>316</v>
+      </c>
+      <c r="J33" t="s">
+        <v>317</v>
+      </c>
+      <c r="K33" t="s">
+        <v>318</v>
+      </c>
+      <c r="L33" t="s">
+        <v>319</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>320</v>
+      </c>
+      <c r="O33" t="s">
+        <v>116</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>321</v>
+      </c>
+      <c r="X33" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>324</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>325</v>
+      </c>
+      <c r="J34" t="s">
+        <v>326</v>
+      </c>
+      <c r="K34" t="s">
+        <v>327</v>
+      </c>
+      <c r="L34" t="s">
+        <v>328</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>329</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>330</v>
+      </c>
+      <c r="X34" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>334</v>
+      </c>
+      <c r="J35" t="s">
+        <v>335</v>
+      </c>
+      <c r="K35" t="s">
+        <v>336</v>
+      </c>
+      <c r="L35" t="s">
+        <v>337</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>338</v>
+      </c>
+      <c r="O35" t="s">
+        <v>116</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>339</v>
+      </c>
+      <c r="X35" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>342</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>343</v>
+      </c>
+      <c r="J36" t="s">
+        <v>344</v>
+      </c>
+      <c r="K36" t="s">
+        <v>345</v>
+      </c>
+      <c r="L36" t="s">
+        <v>346</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>338</v>
+      </c>
+      <c r="O36" t="s">
+        <v>116</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>347</v>
+      </c>
+      <c r="X36" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>350</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>351</v>
+      </c>
+      <c r="J37" t="s">
+        <v>352</v>
+      </c>
+      <c r="K37" t="s">
+        <v>353</v>
+      </c>
+      <c r="L37" t="s">
+        <v>354</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s">
+        <v>116</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>355</v>
+      </c>
+      <c r="X37" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>358</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>359</v>
+      </c>
+      <c r="J38" t="s">
+        <v>360</v>
+      </c>
+      <c r="K38" t="s">
+        <v>361</v>
+      </c>
+      <c r="L38" t="s">
+        <v>362</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>258</v>
+      </c>
+      <c r="O38" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>363</v>
+      </c>
+      <c r="X38" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>366</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>367</v>
+      </c>
+      <c r="J39" t="s">
+        <v>368</v>
+      </c>
+      <c r="K39" t="s">
+        <v>369</v>
+      </c>
+      <c r="L39" t="s">
+        <v>370</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>371</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>372</v>
+      </c>
+      <c r="X39" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>375</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>376</v>
+      </c>
+      <c r="J40" t="s">
+        <v>377</v>
+      </c>
+      <c r="K40" t="s">
+        <v>248</v>
+      </c>
+      <c r="L40" t="s">
+        <v>378</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>379</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>380</v>
+      </c>
+      <c r="X40" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>383</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>384</v>
+      </c>
+      <c r="J41" t="s">
+        <v>385</v>
+      </c>
+      <c r="K41" t="s">
+        <v>386</v>
+      </c>
+      <c r="L41" t="s">
+        <v>387</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>388</v>
+      </c>
+      <c r="O41" t="s">
+        <v>116</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>389</v>
+      </c>
+      <c r="X41" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>393</v>
+      </c>
+      <c r="J42" t="s">
+        <v>394</v>
+      </c>
+      <c r="K42" t="s">
+        <v>395</v>
+      </c>
+      <c r="L42" t="s">
+        <v>396</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>397</v>
+      </c>
+      <c r="O42" t="s">
+        <v>116</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>398</v>
+      </c>
+      <c r="X42" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>401</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>402</v>
+      </c>
+      <c r="J43" t="s">
+        <v>403</v>
+      </c>
+      <c r="K43" t="s">
+        <v>404</v>
+      </c>
+      <c r="L43" t="s">
+        <v>405</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>397</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>406</v>
+      </c>
+      <c r="X43" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>409</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>410</v>
+      </c>
+      <c r="J44" t="s">
+        <v>411</v>
+      </c>
+      <c r="K44" t="s">
+        <v>412</v>
+      </c>
+      <c r="L44" t="s">
+        <v>413</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>414</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>415</v>
+      </c>
+      <c r="X44" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>418</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>419</v>
+      </c>
+      <c r="J45" t="s">
+        <v>420</v>
+      </c>
+      <c r="K45" t="s">
+        <v>421</v>
+      </c>
+      <c r="L45" t="s">
+        <v>422</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>423</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>424</v>
+      </c>
+      <c r="X45" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>427</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>428</v>
+      </c>
+      <c r="J46" t="s">
+        <v>429</v>
+      </c>
+      <c r="K46" t="s">
+        <v>430</v>
+      </c>
+      <c r="L46" t="s">
+        <v>431</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>432</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>433</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>434</v>
+      </c>
+      <c r="J47" t="s">
+        <v>435</v>
+      </c>
+      <c r="K47" t="s">
+        <v>436</v>
+      </c>
+      <c r="L47" t="s">
+        <v>437</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>438</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>439</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>440</v>
+      </c>
+      <c r="J48" t="s">
+        <v>441</v>
+      </c>
+      <c r="K48" t="s">
+        <v>442</v>
+      </c>
+      <c r="L48" t="s">
+        <v>443</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>444</v>
+      </c>
+      <c r="O48" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>446</v>
+      </c>
+      <c r="J49" t="s">
+        <v>447</v>
+      </c>
+      <c r="K49" t="s">
+        <v>448</v>
+      </c>
+      <c r="L49" t="s">
+        <v>449</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>450</v>
+      </c>
+      <c r="O49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>451</v>
+      </c>
+      <c r="X49" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>454</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>455</v>
+      </c>
+      <c r="J50" t="s">
+        <v>456</v>
+      </c>
+      <c r="K50" t="s">
+        <v>457</v>
+      </c>
+      <c r="L50" t="s">
+        <v>458</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>459</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>460</v>
+      </c>
+      <c r="X50" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>463</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>464</v>
+      </c>
+      <c r="J51" t="s">
+        <v>465</v>
+      </c>
+      <c r="K51" t="s">
+        <v>466</v>
+      </c>
+      <c r="L51" t="s">
+        <v>467</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>468</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>469</v>
+      </c>
+      <c r="X51" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>472</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>473</v>
+      </c>
+      <c r="J52" t="s">
+        <v>474</v>
+      </c>
+      <c r="K52" t="s">
+        <v>475</v>
+      </c>
+      <c r="L52" t="s">
+        <v>476</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>477</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>478</v>
+      </c>
+      <c r="X52" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>481</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>482</v>
+      </c>
+      <c r="J53" t="s">
+        <v>483</v>
+      </c>
+      <c r="K53" t="s">
+        <v>484</v>
+      </c>
+      <c r="L53" t="s">
+        <v>485</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>486</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>487</v>
+      </c>
+      <c r="X53" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>490</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>491</v>
+      </c>
+      <c r="J54" t="s">
+        <v>492</v>
+      </c>
+      <c r="K54" t="s">
+        <v>493</v>
+      </c>
+      <c r="L54" t="s">
+        <v>494</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>495</v>
+      </c>
+      <c r="O54" t="s">
+        <v>72</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>496</v>
+      </c>
+      <c r="X54" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>499</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>500</v>
+      </c>
+      <c r="J55" t="s">
+        <v>501</v>
+      </c>
+      <c r="K55" t="s">
+        <v>502</v>
+      </c>
+      <c r="L55" t="s">
+        <v>503</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>504</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>505</v>
+      </c>
+      <c r="X55" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>508</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>509</v>
+      </c>
+      <c r="J56" t="s">
+        <v>510</v>
+      </c>
+      <c r="K56" t="s">
+        <v>511</v>
+      </c>
+      <c r="L56" t="s">
+        <v>512</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>513</v>
+      </c>
+      <c r="O56" t="s">
+        <v>116</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>514</v>
+      </c>
+      <c r="X56" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>517</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>518</v>
+      </c>
+      <c r="J57" t="s">
+        <v>519</v>
+      </c>
+      <c r="K57" t="s">
+        <v>520</v>
+      </c>
+      <c r="L57" t="s">
+        <v>521</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>513</v>
+      </c>
+      <c r="O57" t="s">
+        <v>522</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>514</v>
+      </c>
+      <c r="X57" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>524</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>525</v>
+      </c>
+      <c r="J58" t="s">
+        <v>526</v>
+      </c>
+      <c r="K58" t="s">
+        <v>527</v>
+      </c>
+      <c r="L58" t="s">
+        <v>528</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>529</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>530</v>
+      </c>
+      <c r="X58" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>533</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>534</v>
+      </c>
+      <c r="J59" t="s">
+        <v>535</v>
+      </c>
+      <c r="K59" t="s">
+        <v>536</v>
+      </c>
+      <c r="L59" t="s">
+        <v>537</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>538</v>
+      </c>
+      <c r="O59" t="s">
+        <v>116</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>539</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>540</v>
+      </c>
+      <c r="J60" t="s">
+        <v>541</v>
+      </c>
+      <c r="K60" t="s">
+        <v>542</v>
+      </c>
+      <c r="L60" t="s">
+        <v>543</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>544</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>545</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>546</v>
+      </c>
+      <c r="J61" t="s">
+        <v>547</v>
+      </c>
+      <c r="K61" t="s">
+        <v>548</v>
+      </c>
+      <c r="L61" t="s">
+        <v>549</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>544</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>550</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>551</v>
+      </c>
+      <c r="J62" t="s">
+        <v>552</v>
+      </c>
+      <c r="K62" t="s">
+        <v>553</v>
+      </c>
+      <c r="L62" t="s">
+        <v>554</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>555</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>556</v>
+      </c>
+      <c r="J63" t="s">
+        <v>557</v>
+      </c>
+      <c r="K63" t="s">
+        <v>558</v>
+      </c>
+      <c r="L63" t="s">
+        <v>559</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>560</v>
+      </c>
+      <c r="O63" t="s">
+        <v>522</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>561</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>562</v>
+      </c>
+      <c r="J64" t="s">
+        <v>563</v>
+      </c>
+      <c r="K64" t="s">
+        <v>564</v>
+      </c>
+      <c r="L64" t="s">
+        <v>565</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>566</v>
+      </c>
+      <c r="X64" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>569</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>570</v>
+      </c>
+      <c r="J65" t="s">
+        <v>571</v>
+      </c>
+      <c r="K65" t="s">
+        <v>572</v>
+      </c>
+      <c r="L65" t="s">
+        <v>573</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>574</v>
+      </c>
+      <c r="O65" t="s">
+        <v>116</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>575</v>
+      </c>
+      <c r="X65" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>578</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>579</v>
+      </c>
+      <c r="J66" t="s">
+        <v>580</v>
+      </c>
+      <c r="K66" t="s">
+        <v>581</v>
+      </c>
+      <c r="L66" t="s">
+        <v>582</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>583</v>
+      </c>
+      <c r="X66" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>585</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>586</v>
+      </c>
+      <c r="J67" t="s">
+        <v>587</v>
+      </c>
+      <c r="K67" t="s">
+        <v>588</v>
+      </c>
+      <c r="L67" t="s">
+        <v>589</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>590</v>
+      </c>
+      <c r="O67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_30.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_30.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="922">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r600946739-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>73628</t>
+  </si>
+  <si>
+    <t>600946739</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Vacation </t>
+  </si>
+  <si>
+    <t>It did its job. Wont return ever or recommend. Our room smelled funky. Restroom looked and felt like a run down gas station. Bedding was so off one mattress bed it was wobbly and the bedding didnt match. We stayed in a room with 2 beds. Coffee marker was disgusting. I didn't get to a cup of coffee while in room. Hot tub was not hot more like lukewarm. The carpet was yucky had to wear socks the whole time. Same breakfast for 2 days. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>It did its job. Wont return ever or recommend. Our room smelled funky. Restroom looked and felt like a run down gas station. Bedding was so off one mattress bed it was wobbly and the bedding didnt match. We stayed in a room with 2 beds. Coffee marker was disgusting. I didn't get to a cup of coffee while in room. Hot tub was not hot more like lukewarm. The carpet was yucky had to wear socks the whole time. Same breakfast for 2 days. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r545411804-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>545411804</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>my review</t>
+  </si>
+  <si>
+    <t>word can not describe the way i felt a this place, i got relax in a Jacuzzi after a hard day of work. it was the best. i had no problems using my travel  cards either . very nice place , i wulld stay their again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2017</t>
+  </si>
+  <si>
+    <t>word can not describe the way i felt a this place, i got relax in a Jacuzzi after a hard day of work. it was the best. i had no problems using my travel  cards either . very nice place , i wulld stay their again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r582945156-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
-    <t>55726</t>
-  </si>
-  <si>
-    <t>73628</t>
-  </si>
-  <si>
     <t>582945156</t>
   </si>
   <si>
@@ -180,12 +240,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>BestWesternDeerPark, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded 3 days ago</t>
-  </si>
-  <si>
-    <t>Responded 3 days ago</t>
-  </si>
-  <si>
     <t>These is a place that I definitely wouldn’t recommend. The service of the team was horrible anything wasn’t  done after I reported the issue. The  room we reserved was supposed to be non smoking room it ended up having a terrible smoke ordor as soon as I opened the doer to get in. There is also a very bad smell of humidity and the cleaning is really bad as well the furniture were dusted all around. We found like three bug around the room.the bath tube was not even clean either worst stay in my lifeMore</t>
   </si>
   <si>
@@ -234,9 +288,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded March 16, 2018</t>
   </si>
   <si>
@@ -246,6 +297,54 @@
     <t>All I have to say is that the manager was very rude to two men while they were eating breakfast. These two men were sitting next to my table while they were eating breakfast and the manager came over very rudely and told them what room number they were in, obviously the men did not speak English and he continued to yell to them to show their ID’s. Whatever the problem was I know that the manager did not handle the situation well or in a professional manner. All he did was ruin a quiet morning and a great start to our day.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r566523115-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>566523115</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Quiet motel</t>
+  </si>
+  <si>
+    <t>Located just a few miles from San jacinto monument and Texas battleship so easy access to those was nice.  Rooms were average. Since there is no AC when room was unoccupied it did take almost half a day to get the musty smell to go away which accounts for the lower score.  Staff was really nice and made sure to make more food when breakfast was running low due to the oil workers who stay here.  Seems well insulated against noise and was quiet the two nights we stayed. MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Located just a few miles from San jacinto monument and Texas battleship so easy access to those was nice.  Rooms were average. Since there is no AC when room was unoccupied it did take almost half a day to get the musty smell to go away which accounts for the lower score.  Staff was really nice and made sure to make more food when breakfast was running low due to the oil workers who stay here.  Seems well insulated against noise and was quiet the two nights we stayed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r543027005-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>543027005</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>The best hotel I ever stayed in</t>
+  </si>
+  <si>
+    <t>I do a lot of traveling for my job in the past 10 years since 2007 I have been staying in this hotel in Deer Park Texas because of the manager and the employees make you feel at home like family to make you stay as good as I canMoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded November 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2017</t>
+  </si>
+  <si>
+    <t>I do a lot of traveling for my job in the past 10 years since 2007 I have been staying in this hotel in Deer Park Texas because of the manager and the employees make you feel at home like family to make you stay as good as I canMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r539881019-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -261,9 +360,6 @@
     <t>When I walked in the smell of the lobby was overpowering with carpet deodorizer.  When I arrived at the room they had the door wide open/airing it out. After the door was shut for a while I realized the room smelled very bad with mildew odor.  I requested a Ozone machine.  They installed one that looked to be about 50 years old.  The fan inside it wasn't turning so the thing couldn't possibly do any good.  It was so old and broken it was likely unsafe to sleep with.  I unplugged it to avoid a possible fire.  I stayed two of the four nights I reserved but relocated to a new hotel as soon as I found a vacancy.MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded November 11, 2017</t>
   </si>
   <si>
@@ -324,6 +420,57 @@
     <t>When you stay at a hotel you're just wanting to rent the bed for a while, not buy it. Here you get a great room for a good low rate. The hotel is located in a good spot where it is easy to come and go, the fitness room and pool were clean and in good shape, the room was nice and clean, and the breakfast was pretty good. There's restaurants within walking distance from the hotel and the staff were happy to help point out any areas of interest. Good service, good room, great price.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r512068462-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>512068462</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>This Was The Best Hotel We Have Ever Stay At Of all The Best Westerns. We As A Family Would Not Stay Anywhere in Houston,Texas  Area, But This Best Western In DeerPark  Inn &amp; Suites,  DeerPark, Texas. So All People From All Walks Of Life Needs To Try It.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>This Was The Best Hotel We Have Ever Stay At Of all The Best Westerns. We As A Family Would Not Stay Anywhere in Houston,Texas  Area, But This Best Western In DeerPark  Inn &amp; Suites,  DeerPark, Texas. So All People From All Walks Of Life Needs To Try It.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r510774084-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>510774084</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Spacious room near fast food</t>
+  </si>
+  <si>
+    <t>Room was spacious, clean and cooling was on the spot! We stayed to visit the USS Texas the next morning and this was close. Several fast food restaurants were next door or within walking distance. We also walked to a Dollar Store a block away. Breakfast was complete. Not a lot of tables if they are busy, but didn't have to wait on food. on a main street but room was quiet. Had no issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Room was spacious, clean and cooling was on the spot! We stayed to visit the USS Texas the next morning and this was close. Several fast food restaurants were next door or within walking distance. We also walked to a Dollar Store a block away. Breakfast was complete. Not a lot of tables if they are busy, but didn't have to wait on food. on a main street but room was quiet. Had no issues.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r508300194-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -339,9 +486,6 @@
     <t>Always feel welcome here, everyone is friendly and happy to help. Rooms are kept clean and the breakfast selection is a lot more than other places. Good location, restaurants on both sides and nearby.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded August 3, 2017</t>
   </si>
   <si>
@@ -366,9 +510,6 @@
     <t>Older Location but quiet and easy access to everything.  Great staff and clean rooms.  Easy check in and check out process and very polite and courteous staff and team. Short drive to NASA, Kemah, and Galveston which is why we stayed. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded August 15, 2017</t>
   </si>
   <si>
@@ -402,6 +543,36 @@
     <t>Every time I'm in the Houston area, I stay at this hotel. The staff is always very friendly, rooms are always nice and clean, breakfast is always perfect...this is by far the best hotel around. Check it out if you're staying in the Houston area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r500482706-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>500482706</t>
+  </si>
+  <si>
+    <t>Good for business but not for family holiday</t>
+  </si>
+  <si>
+    <t>Located near highway and industrial zone. Ok for business trip. Old rooms that need to be refurbished. Air conditioning too noisy. Very helpful and efficient staff. Good price for value despite a very standard breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>Located near highway and industrial zone. Ok for business trip. Old rooms that need to be refurbished. Air conditioning too noisy. Very helpful and efficient staff. Good price for value despite a very standard breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r500233728-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>500233728</t>
+  </si>
+  <si>
+    <t>Baseball ⚾</t>
+  </si>
+  <si>
+    <t>We were there for baseball  tournament. Was a very nice place to stay. The staff was very nice. It was in a great location. It looked good from the outside as well nice and clean. I would stay here again if I need to.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were there for baseball  tournament. Was a very nice place to stay. The staff was very nice. It was in a great location. It looked good from the outside as well nice and clean. I would stay here again if I need to.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r495294501-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -483,6 +654,51 @@
     <t>This two story exterior door hotel is a wonderful place to stay.   They were very pleasant at check in. He remembered the reunion we attended the last time we visited.    He was very eager to help with anything we needed.  He even made us fresh biscuits. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r473520831-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>473520831</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Day manager is a great person very friendly and helpful . nghhggn,lkn m,..mn ,.///.,khgfddsergbvvcddg;ih;g;gu;g;g;glifliyfyykudckuc,cc,jccjcj,c,c,jjc,c,c,c,yfyf,j, ,jhvhvjvkvkvchcyf vkvkvhvvhvhvhkhuglglfglflyff  gliugilyfliyfiyfyf    lfliyfliyfliyflfvv   fliyflfyfvvyilfliyfilyfvMoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded April 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2017</t>
+  </si>
+  <si>
+    <t>Day manager is a great person very friendly and helpful . nghhggn,lkn m,..mn ,.///.,khgfddsergbvvcddg;ih;g;gu;g;g;glifliyfyykudckuc,cc,jccjcj,c,c,jjc,c,c,c,yfyf,j, ,jhvhvjvkvkvchcyf vkvkvhvvhvhvhkhuglglfglflyff  gliugilyfliyfiyfyf    lfliyfliyfliyflfvv   fliyflfyfvvyilfliyfilyfvMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r471357613-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>471357613</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>The room was nice and spacious. The breakfast was great as is the case for the Best Western brand. The staff is friendly and the owner is in frequently and is a very friendly guy. I stayed here partially to be between sylvan beach and houston because my daughter is a beach fanatic. It is a good location for that and also gives you easy access to the amazing NASA space center. Only one minor gripe is they seem to be clingy with the towels. Only had 1 bath towel in the room even after replacing the 3 we used. It's easy to ask and get more towels though.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>The room was nice and spacious. The breakfast was great as is the case for the Best Western brand. The staff is friendly and the owner is in frequently and is a very friendly guy. I stayed here partially to be between sylvan beach and houston because my daughter is a beach fanatic. It is a good location for that and also gives you easy access to the amazing NASA space center. Only one minor gripe is they seem to be clingy with the towels. Only had 1 bath towel in the room even after replacing the 3 we used. It's easy to ask and get more towels though.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r466202835-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -498,9 +714,6 @@
     <t>Well, that was a roadside motel better than most 'Upscale' BWs I've stayed at in a while. Not fancy; totally roadside, but they know what they are doing. The room was old but CLEAN! Thank you. Smiling faces at the desk and at breakfast is awesome...I don't want Debbie Downers when I'm traveling! Thank you! 2.00 dollars for a Snickers Bar though, especially when you weren't given your FREE PLATINUM MEMBER SNACK or room upgrade upon arrival. I find the Best Western Rewards Program to be somewhat of a joke.Very careless, unconvicted corporate program, not to fault the individual property.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded March 13, 2017</t>
   </si>
   <si>
@@ -561,6 +774,57 @@
     <t>Only issue I had was the refrigerator causing my snacks to melt and waisted.  The staff was very nice and helpful, and my room was clean and smelled nice even for a smoking room.  The locations is near restaurants and stores so no need to travel far.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r450701533-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>450701533</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Well, okay.</t>
+  </si>
+  <si>
+    <t>Pros: Room clean but dated; carpet had neat appearance. Adequate electrical outlets. “Hollywood” bath. Bathroom fan can be switched off. Hot coffee available in lobby (except between 10 PM and 5 AM). Desk clerk was friendly.Cons: A/C fan runs continuously. Unit had fan switch (high, low, auto), but setting made no difference. Could not set room temperature above 76°, which was just adequate.Misc: Comps were good. I forgot toothpaste and desk clerk provided some. Bed comfort was fair to good. Lobby closed between 10PM and 5AM daily. Microwave oven small but worked very well.Be careful when making reservation if you think you may need to cancel it. I did not realise the cancellation policy and tried to cancel the night before only to be told that I had to cancel 72 hours before. I either had to make the trip or forfeit the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded January 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2017</t>
+  </si>
+  <si>
+    <t>Pros: Room clean but dated; carpet had neat appearance. Adequate electrical outlets. “Hollywood” bath. Bathroom fan can be switched off. Hot coffee available in lobby (except between 10 PM and 5 AM). Desk clerk was friendly.Cons: A/C fan runs continuously. Unit had fan switch (high, low, auto), but setting made no difference. Could not set room temperature above 76°, which was just adequate.Misc: Comps were good. I forgot toothpaste and desk clerk provided some. Bed comfort was fair to good. Lobby closed between 10PM and 5AM daily. Microwave oven small but worked very well.Be careful when making reservation if you think you may need to cancel it. I did not realise the cancellation policy and tried to cancel the night before only to be told that I had to cancel 72 hours before. I either had to make the trip or forfeit the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r447299428-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>447299428</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Truck Driver</t>
+  </si>
+  <si>
+    <t>Clean rooms. Nice layout. Continental breakfast. Great location plenty of places to eat in walking distance. Staff is super friendly. Actually called my room to make sure everything was satisfactory! Highly recommended MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Clean rooms. Nice layout. Continental breakfast. Great location plenty of places to eat in walking distance. Staff is super friendly. Actually called my room to make sure everything was satisfactory! Highly recommended More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r443663388-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -576,9 +840,6 @@
     <t>We were in the area to see the San Jacinto Battlefield.  We only wanted one night and wanted a ground floor room.  The room was very spacious, although a little stale when we entered.  Location is good for everything we wanted.  Front desk clerk was a delight.  Breakfast was very good...Love those Texas waffles!MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 12, 2016</t>
   </si>
   <si>
@@ -633,6 +894,63 @@
     <t>Best Western Inn &amp; Suites,Deer Park,Texas  has been our favorite Hotel  to stay at when we are in the Deer Park area,f..or several years! The rooms are clean  &amp; modern furniture &amp; appliances are top quality...exceptional place to stay!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r421865899-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>421865899</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Standard BW. Good sized room. The pool was nice, must have been to get me in it! My only gripe was that the sun loungers were well and truly broken. Staff very nice. Toilet by pool very modern and clean. Standard hot BW breakfast. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Standard BW. Good sized room. The pool was nice, must have been to get me in it! My only gripe was that the sun loungers were well and truly broken. Staff very nice. Toilet by pool very modern and clean. Standard hot BW breakfast. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r410504860-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>410504860</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Home Design Manager</t>
+  </si>
+  <si>
+    <t>While re-tiling my home, I chose to leave due to the dust and lack of sleeping arrangements. This hotel right down the street offered a smoking room, which was nice for me because, I'm a smoker. It's reassuring to know that some establishments do not treat us all like outcasts and exiles and believe that we still should be treated like customers. In an upside down world, where you can walk down the street w a marijuana joint in downtown Denver, Co. I can't find a place where I can feel safe to smoke after dark! And would b charged $200 for the privilege  of not having my skull bashed in, by smoking in my room bc my host has decided not to put aside one of its thousands of rooms for people like me who choose to smoke. Besides the danger, there is usually no cover from rain or seating in these shotty areas that they offer their, "second class" customers. It's enough to make u feel unwelcome, and It's a bit upsetting! So, thank you Best Western! You may not be considered a 5 star, room service, mint on your pillow palace. But I felt safe and comfortable in my room! I appreciated that more than the turn down service! For some one who could afford the options, I chose the one that counted.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>While re-tiling my home, I chose to leave due to the dust and lack of sleeping arrangements. This hotel right down the street offered a smoking room, which was nice for me because, I'm a smoker. It's reassuring to know that some establishments do not treat us all like outcasts and exiles and believe that we still should be treated like customers. In an upside down world, where you can walk down the street w a marijuana joint in downtown Denver, Co. I can't find a place where I can feel safe to smoke after dark! And would b charged $200 for the privilege  of not having my skull bashed in, by smoking in my room bc my host has decided not to put aside one of its thousands of rooms for people like me who choose to smoke. Besides the danger, there is usually no cover from rain or seating in these shotty areas that they offer their, "second class" customers. It's enough to make u feel unwelcome, and It's a bit upsetting! So, thank you Best Western! You may not be considered a 5 star, room service, mint on your pillow palace. But I felt safe and comfortable in my room! I appreciated that more than the turn down service! For some one who could afford the options, I chose the one that counted.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r392344087-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -708,6 +1026,48 @@
     <t>The room was good enough for our overnight stay.  Asked for a late check out and were easily accommodated.  It wasn't fancy but the bed was comfortable and it suited our needs perfectly.  There was a slight "spoiled" odor coming from the area of the TV.  It wasn't overwhelming and we didn't notice right away.  It was just noticeable when we passed by the TV, which was weird.  Other than that - all was good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r383858097-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>383858097</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Road Tour</t>
+  </si>
+  <si>
+    <t>Was on annual Hot Rod Power Tour and pre-booked with Best Western. Hotel was easy to find close to interstate highway. Staff was very knowledgeable with things in the surrounding area. Made sure I had place to park my hot rod out front of building. Only bad thing about the stay was traffic which was horrible even at 6:00 amMoreShow less</t>
+  </si>
+  <si>
+    <t>Was on annual Hot Rod Power Tour and pre-booked with Best Western. Hotel was easy to find close to interstate highway. Staff was very knowledgeable with things in the surrounding area. Made sure I had place to park my hot rod out front of building. Only bad thing about the stay was traffic which was horrible even at 6:00 amMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r383295995-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>383295995</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Motel 6 with a Best Western sign</t>
+  </si>
+  <si>
+    <t>The location was great for what we needed. However, the actual room and hotel itself reminded me of a Motel 6 with a Best Western sign. The lobby was nice but inaccessible from your room.  They do serve a hot breakfast but with eggs, sausage, biscuits, or bacon, and waffles.  The waffles were good, The juice was out.   The breakfast was always empty.  The only thing you could count on were waffles or cereal.  We used the washer and dryer bc we were there for 3 nights.  The washer was fast but the dryer took several rotations to dry.  The room was on the second floor and stunk from being closed up and air not on for a while.  The room was very small.   Most everything from the microwave, fridge, furniture was very old.  The pool looked clean but the hot tub was yellow.   It rained most of our stay so we only were able to get in the pool once.  The older lady who worked at night was unfriendly.  Over all, I will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternDeerPark, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded June 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2016</t>
+  </si>
+  <si>
+    <t>The location was great for what we needed. However, the actual room and hotel itself reminded me of a Motel 6 with a Best Western sign. The lobby was nice but inaccessible from your room.  They do serve a hot breakfast but with eggs, sausage, biscuits, or bacon, and waffles.  The waffles were good, The juice was out.   The breakfast was always empty.  The only thing you could count on were waffles or cereal.  We used the washer and dryer bc we were there for 3 nights.  The washer was fast but the dryer took several rotations to dry.  The room was on the second floor and stunk from being closed up and air not on for a while.  The room was very small.   Most everything from the microwave, fridge, furniture was very old.  The pool looked clean but the hot tub was yellow.   It rained most of our stay so we only were able to get in the pool once.  The older lady who worked at night was unfriendly.  Over all, I will not stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r368324230-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -777,6 +1137,51 @@
     <t>I would recommend this hotel to anyone rooms were very clean, beds comfortable, location has washer and dryers reasonable priced. Location near freeway and many restaurants very convenient.  The Italian restaurant down the street was great..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r364058198-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>364058198</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Bugs!</t>
+  </si>
+  <si>
+    <t>I stayed one Sunday night at this hotel while visiting with a sick friend in the area. I always try to stay at a Best Western because I know what to expect. The lobby was nice and check-in was nice. The room had an odd smell to it. It appeared clean, but then I noticed a used coffee stir stick on the carpet, and I saw two roaches in the bathroom. I encountered two stray cats outside near the vending machines. Also, at breakfast, I got the instant oatmeal because everything else looked like it had sat there a while, but then there was no microwave in the lobby; I had to tote everything back to my room to use the in-room microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t>DineshPDeerPark, Owner at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>I stayed one Sunday night at this hotel while visiting with a sick friend in the area. I always try to stay at a Best Western because I know what to expect. The lobby was nice and check-in was nice. The room had an odd smell to it. It appeared clean, but then I noticed a used coffee stir stick on the carpet, and I saw two roaches in the bathroom. I encountered two stray cats outside near the vending machines. Also, at breakfast, I got the instant oatmeal because everything else looked like it had sat there a while, but then there was no microwave in the lobby; I had to tote everything back to my room to use the in-room microwave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r354184568-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>354184568</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>FRAUDULENT OVER CHARGING</t>
+  </si>
+  <si>
+    <t>I arrived on March 4th , Friday night, actually at 12:30 a.m. (technically March 5th). I asked for a room for 1 night and was quoted $118. I agreed and signed for the room, received my key card and retired to my room. I checked my bank statement the following Tuesday and the charges finally hit. I was charged for 2 nights. I left at 9:30  a.m. and went to Galveston Island for the rest of the weekend and I have charges from their to prove all of this, gas, eating,etc. When I spoke to the manager at this location David Cisneros, he was shockingly unprofessional and even asked me "why did you stay here anyway?" meaning for that little amount of time. I also started a formal complaint with corporate , and was told this is a basic "he said , she said case, and we will be standing by the motels decision". Its real simple, when I checked in, actually on the 5th, they made a clerical error of putting the 6th as my checkout date, but I was paying for my single night of the 4th. David even lied to corporate and said that "housekeeping saw luggage and signs of someone staying another night", which later changed to "housekeeping saw me". IMPOSSIBLE, I wasn't even in the same county. There are more than a few cases of this location fraudulently over charging. Its simple to see how...I arrived on March 4th , Friday night, actually at 12:30 a.m. (technically March 5th). I asked for a room for 1 night and was quoted $118. I agreed and signed for the room, received my key card and retired to my room. I checked my bank statement the following Tuesday and the charges finally hit. I was charged for 2 nights. I left at 9:30  a.m. and went to Galveston Island for the rest of the weekend and I have charges from their to prove all of this, gas, eating,etc. When I spoke to the manager at this location David Cisneros, he was shockingly unprofessional and even asked me "why did you stay here anyway?" meaning for that little amount of time. I also started a formal complaint with corporate , and was told this is a basic "he said , she said case, and we will be standing by the motels decision". Its real simple, when I checked in, actually on the 5th, they made a clerical error of putting the 6th as my checkout date, but I was paying for my single night of the 4th. David even lied to corporate and said that "housekeeping saw luggage and signs of someone staying another night", which later changed to "housekeeping saw me". IMPOSSIBLE, I wasn't even in the same county. There are more than a few cases of this location fraudulently over charging. Its simple to see how this mistake occurred, and its simple TO LOOK AT CAMERAS AND SEE WHEN I LEFT. STAY AWAY FROM THIS SHADY BUSINESS, its sad they operate in such a great little community and take advantage of their patrons like this.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I arrived on March 4th , Friday night, actually at 12:30 a.m. (technically March 5th). I asked for a room for 1 night and was quoted $118. I agreed and signed for the room, received my key card and retired to my room. I checked my bank statement the following Tuesday and the charges finally hit. I was charged for 2 nights. I left at 9:30  a.m. and went to Galveston Island for the rest of the weekend and I have charges from their to prove all of this, gas, eating,etc. When I spoke to the manager at this location David Cisneros, he was shockingly unprofessional and even asked me "why did you stay here anyway?" meaning for that little amount of time. I also started a formal complaint with corporate , and was told this is a basic "he said , she said case, and we will be standing by the motels decision". Its real simple, when I checked in, actually on the 5th, they made a clerical error of putting the 6th as my checkout date, but I was paying for my single night of the 4th. David even lied to corporate and said that "housekeeping saw luggage and signs of someone staying another night", which later changed to "housekeeping saw me". IMPOSSIBLE, I wasn't even in the same county. There are more than a few cases of this location fraudulently over charging. Its simple to see how...I arrived on March 4th , Friday night, actually at 12:30 a.m. (technically March 5th). I asked for a room for 1 night and was quoted $118. I agreed and signed for the room, received my key card and retired to my room. I checked my bank statement the following Tuesday and the charges finally hit. I was charged for 2 nights. I left at 9:30  a.m. and went to Galveston Island for the rest of the weekend and I have charges from their to prove all of this, gas, eating,etc. When I spoke to the manager at this location David Cisneros, he was shockingly unprofessional and even asked me "why did you stay here anyway?" meaning for that little amount of time. I also started a formal complaint with corporate , and was told this is a basic "he said , she said case, and we will be standing by the motels decision". Its real simple, when I checked in, actually on the 5th, they made a clerical error of putting the 6th as my checkout date, but I was paying for my single night of the 4th. David even lied to corporate and said that "housekeeping saw luggage and signs of someone staying another night", which later changed to "housekeeping saw me". IMPOSSIBLE, I wasn't even in the same county. There are more than a few cases of this location fraudulently over charging. Its simple to see how this mistake occurred, and its simple TO LOOK AT CAMERAS AND SEE WHEN I LEFT. STAY AWAY FROM THIS SHADY BUSINESS, its sad they operate in such a great little community and take advantage of their patrons like this.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r348558483-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -858,6 +1263,48 @@
     <t>Had to attend safety council classes and in house training in Deer Park. This is a definite return spot if I am back in the area. The room was incredible spacious and quiet. No outside noise at all. Slept well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r345033055-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>345033055</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>Quick one night stay</t>
+  </si>
+  <si>
+    <t>We needed somewhere to stay for an out of town funeral.  The rooms were clean and the staff friendly.  They were quick to provide extra towels and toiletries.  When we were checking out, the housekeeping had called down to the front desk to let us know my daughter had left some clothes behind the bathroom door.  We have family in Deer Park, and we would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We needed somewhere to stay for an out of town funeral.  The rooms were clean and the staff friendly.  They were quick to provide extra towels and toiletries.  When we were checking out, the housekeeping had called down to the front desk to let us know my daughter had left some clothes behind the bathroom door.  We have family in Deer Park, and we would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r343118278-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>343118278</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Poor Value</t>
+  </si>
+  <si>
+    <t>This hotel is old style and looks a lot better on line than in person. On a rainy windy day you will get wet on the exterior corridors and stairways. Rooms are insecure and noisy because of the exterior access. Furniture and bedding are minimal and mediocre. I would not stay here again for half the $100/night rate I paid. There are much better choices in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Owner at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is old style and looks a lot better on line than in person. On a rainy windy day you will get wet on the exterior corridors and stairways. Rooms are insecure and noisy because of the exterior access. Furniture and bedding are minimal and mediocre. I would not stay here again for half the $100/night rate I paid. There are much better choices in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r341107003-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -924,9 +1371,6 @@
     <t>I was surprised how nice the Hotel was for the price that I paid! Very Nice! I was also very happy with the service. The people seem so nice here! They went out of their way to make our stay really nice!MoreShow less</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>David C, Owner at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 5, 2015</t>
   </si>
   <si>
@@ -936,6 +1380,54 @@
     <t>I was surprised how nice the Hotel was for the price that I paid! Very Nice! I was also very happy with the service. The people seem so nice here! They went out of their way to make our stay really nice!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r329863218-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>329863218</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Best Western, Deer Park,Tx</t>
+  </si>
+  <si>
+    <t>An ok hotel. Needs some serious room maintenance. Pool and hot tub do not heat up as advertised.   For the quality of the facility, it was over priced. I doubt that I will use this hotel when in that area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Owner at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2015</t>
+  </si>
+  <si>
+    <t>An ok hotel. Needs some serious room maintenance. Pool and hot tub do not heat up as advertised.   For the quality of the facility, it was over priced. I doubt that I will use this hotel when in that area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r327393510-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>327393510</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Too many faults</t>
+  </si>
+  <si>
+    <t>All in all a pretty poor experience. The fridge and air conditioning noise were unacceptable, the smell in the room was dreadful, and I hated eating the free breakfast with plastic cutlery off cardboard plates at the price I was paying.MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>All in all a pretty poor experience. The fridge and air conditioning noise were unacceptable, the smell in the room was dreadful, and I hated eating the free breakfast with plastic cutlery off cardboard plates at the price I was paying.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r321783617-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1509,57 @@
     <t>This was one of the best Best Western stays I've ever had. The hotel was great, the room was comfortable and the breakfast was good. The area had lots of places to eat. For someone traveling on business, it's an ideal place to stay. I would recommend this hotel to anyone who is looking for a great place to stay in this area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r292409327-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>292409327</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can do better </t>
+  </si>
+  <si>
+    <t>We stayed with our team for a baseball tournament.  Desk staff was nice at check in but mishandled and gave conflicting information about our paperwork. The rooms were continually damp and the smelled moldy.Dead roach in bathroom when I got there.In-room refrigerator was a nice feature but had no temperature control and it didn't cool properly.Housekeeping took my dirty towels but never brought fresh. The lock on one of team's rooms kept malfunctioning and locking out its occupants, requiring repeated resets by the desk staff.  Also, if you do stay, be sure to pull your door closed behind you.  With doors opening to the parking lot, it is dangerous that they don't seal unless forcibly closed.Breakfast was about what you'd expect, except for the scrambled eggs which were nasty, for lack of a better word.They were also inflexible with a late departure time, even though there were plenty of vacancies the entire time we were there.  The nature of tournaments make it hard to know when you are going home and we'd expect a bit of understanding when we gave them the bulk of their occupants for several days.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>We stayed with our team for a baseball tournament.  Desk staff was nice at check in but mishandled and gave conflicting information about our paperwork. The rooms were continually damp and the smelled moldy.Dead roach in bathroom when I got there.In-room refrigerator was a nice feature but had no temperature control and it didn't cool properly.Housekeeping took my dirty towels but never brought fresh. The lock on one of team's rooms kept malfunctioning and locking out its occupants, requiring repeated resets by the desk staff.  Also, if you do stay, be sure to pull your door closed behind you.  With doors opening to the parking lot, it is dangerous that they don't seal unless forcibly closed.Breakfast was about what you'd expect, except for the scrambled eggs which were nasty, for lack of a better word.They were also inflexible with a late departure time, even though there were plenty of vacancies the entire time we were there.  The nature of tournaments make it hard to know when you are going home and we'd expect a bit of understanding when we gave them the bulk of their occupants for several days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r290956895-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>290956895</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Nice Staff</t>
+  </si>
+  <si>
+    <t>Super nice staff and very clean room.  Fast food restaurants on both sides of hotel.  Easy to get to.  While we did not eat breakfast there, the food looked good,  Only negative was no elevator only stairs.  What a hassle to pull luggage up and down stairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, General Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Super nice staff and very clean room.  Fast food restaurants on both sides of hotel.  Easy to get to.  While we did not eat breakfast there, the food looked good,  Only negative was no elevator only stairs.  What a hassle to pull luggage up and down stairs.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r287799990-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1032,9 +1575,6 @@
     <t>Excellent everything, the breakfast was very tasty, very comfortable beds, smells very nice, everything looks like its cleaned with detail. The pool is very clean. we stayed during the July 4th weekend and the Deer Park had a spectacular fireworks show right in front.MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded July 14, 2015</t>
   </si>
   <si>
@@ -1092,6 +1632,45 @@
     <t>Went to Deer Park for my niece's dance recital.  The hotel was comfortable, staff was great and helpful and location was perfect for this trip.  The room was very clean.  I really enjoyed staying at this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r282532220-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>282532220</t>
+  </si>
+  <si>
+    <t>A nice comfortable place to stay</t>
+  </si>
+  <si>
+    <t>This place fulfilled my needs very well, was close to the places I needed to go. Plenty of restaurant choices within a couple blocks in either direction. The price was reasonable, and a better value than many other comparable motels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place fulfilled my needs very well, was close to the places I needed to go. Plenty of restaurant choices within a couple blocks in either direction. The price was reasonable, and a better value than many other comparable motels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r281515533-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>281515533</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Nothing Negative to Say. Had a great stay, staff was super friendly, room was clean and was an overall great experience. Would definately stay at Best Western Deer park again for either business of pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Nothing Negative to Say. Had a great stay, staff was super friendly, room was clean and was an overall great experience. Would definately stay at Best Western Deer park again for either business of pleasure.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r279854368-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1746,54 @@
     <t>Everything I needed for 7 days at my 50th class reunion. Centrally located, drive-up to your room, and all the amenities. The breakfast was wonderful and saved us from having to get dressed up in the morning plus the newspaper was always there.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r267813065-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>267813065</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>A good night sleep and decent warm compementary breakfast</t>
+  </si>
+  <si>
+    <t>My co-workers and I have been coming to this hotel every three months on business for the last three years.As you can see, I so not consider it a 4 star resort, but as for business (and family) travel it gets the job done. The just finished a remodel of the front desk to breakfast area. The rooms are always clean and in good repair. The bathroom areas are also always clean. The room furnature is in good repair. The staff is aways helpful.The WiFi always works. MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>My co-workers and I have been coming to this hotel every three months on business for the last three years.As you can see, I so not consider it a 4 star resort, but as for business (and family) travel it gets the job done. The just finished a remodel of the front desk to breakfast area. The rooms are always clean and in good repair. The bathroom areas are also always clean. The room furnature is in good repair. The staff is aways helpful.The WiFi always works. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r266950839-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>266950839</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and great remodel</t>
+  </si>
+  <si>
+    <t>This hotel has been renovated with great style and comfort in mind. The staff is extremely helpful and friendly. A severe thunderstorm passed through overnight, but felt completely safe through it! Exactly what you expect in Texas! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>This hotel has been renovated with great style and comfort in mind. The staff is extremely helpful and friendly. A severe thunderstorm passed through overnight, but felt completely safe through it! Exactly what you expect in Texas! :)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r261444163-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1872,57 @@
     <t>Nice, clean room. Friendly staff. We have stayed here many times while in town on business. The property and the rooms are very nice and clean. There are many good places to eat near by. Location is really convenient to local industry.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r252187194-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>252187194</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>Trip 2015</t>
+  </si>
+  <si>
+    <t>Excellent  experience. Great location for Houston, TX area. Easy to get to all area attractions. Staff more than helpful and friendly. Convenient to restaurants, stores, and shops.  Will stay again if I'm out that way again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Excellent  experience. Great location for Houston, TX area. Easy to get to all area attractions. Staff more than helpful and friendly. Convenient to restaurants, stores, and shops.  Will stay again if I'm out that way again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r249393601-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>249393601</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Greatly improved motel!</t>
+  </si>
+  <si>
+    <t>This is a clean, comfortable and quiet place to stay when in Deer Park and Pasadena area.  It is economical with helpful and friendly staff and a decent breakfast, comfortable beds, and good internet.  Many renovations have been completed, the rooms are fresh and clean, the lobby area bright and welcoming.MoreShow less</t>
+  </si>
+  <si>
+    <t>David C, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded January 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2015</t>
+  </si>
+  <si>
+    <t>This is a clean, comfortable and quiet place to stay when in Deer Park and Pasadena area.  It is economical with helpful and friendly staff and a decent breakfast, comfortable beds, and good internet.  Many renovations have been completed, the rooms are fresh and clean, the lobby area bright and welcoming.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r244131939-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1317,6 +1995,39 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r225595434-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>225595434</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>This was a very nice and pleasant stay. Staff was helpful and friendly. The room and the  area was quite I did not hear the other guest staying at the property. The pool area is nice I also used the exercise room. The breakfast has a lot of different items to choose from, like eggs, gravy and more for the lighter side fruit, yogurt and cereal Would refer my friends to this Hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r215030532-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>215030532</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Staff is top notch</t>
+  </si>
+  <si>
+    <t>The location was ok, the room was nice, breakfast was better but the staff was top notch.  I would stay here again because I love to see workers that really appreciate you staying with them.  All staff included, they were so friendly as I walked the grounds that I felt like I met them before.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r210110804-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +2091,48 @@
     <t>I love the staff at the Deer Park Inn &amp; Suites. Lovely folks that go above and beyond to make their customers feel more than welcome. I look forward to deal with this staff in the future. The location makes it easy to travel, whether it be local, or involves hopping on the freeway.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r203800996-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>203800996</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We were in Deer Park for the San Jacinto battle reenactment.  This hotel's location was EXCELLENT!!! The rooms were very nice, clean and comfortable.  The staff was very helpful and courteous.  The beds &amp; pillows were extremely comfortable.  The only thing at this hotel I would change is the exterior room entry.  I would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in Deer Park for the San Jacinto battle reenactment.  This hotel's location was EXCELLENT!!! The rooms were very nice, clean and comfortable.  The staff was very helpful and courteous.  The beds &amp; pillows were extremely comfortable.  The only thing at this hotel I would change is the exterior room entry.  I would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r201631472-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>201631472</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Friendly staff!</t>
+  </si>
+  <si>
+    <t>We made a last minute 9 room reservation for 30 students. The staff was very accommodating and friendly. The rooms were very nice and they took excellent care of us! We will hopefully stay there again next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rush P, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>We made a last minute 9 room reservation for 30 students. The staff was very accommodating and friendly. The rooms were very nice and they took excellent care of us! We will hopefully stay there again next year.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r193314235-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +2214,57 @@
     <t>MIce was in my room. and the staff only moved me to another room doesn't mean that the set up any service to deal with the rodent issue. Very disSatisfied with MIce being in the room! I feel like i should have been given somethingMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r182861459-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>182861459</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Served my purpose well</t>
+  </si>
+  <si>
+    <t>Really clean and neat small hotel with a very friendly staff and safe location.We just needed a clean room for 2 nights to sleep and clean up.I would recommend this place.It's not a 5 star hotel,but for the money you can't beat it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Rush P, Guest Relations Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Really clean and neat small hotel with a very friendly staff and safe location.We just needed a clean room for 2 nights to sleep and clean up.I would recommend this place.It's not a 5 star hotel,but for the money you can't beat it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r181643849-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>181643849</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>Mosquito Western</t>
+  </si>
+  <si>
+    <t>When we arrived, the door chimed to alert someone, but no one showed.  I then rang the service bell, and we still waiting a little while before someone greeted us.  When we opened the door to our guest room, a musty smell filled my nose, as if laundry had been left in the washer for hours.  When we awoke from our sleep, we were covered in mosquito bites.  I had seen one and killed it before we went to sleep, but apparently there were a few.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rush P, Guest Relations Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>When we arrived, the door chimed to alert someone, but no one showed.  I then rang the service bell, and we still waiting a little while before someone greeted us.  When we opened the door to our guest room, a musty smell filled my nose, as if laundry had been left in the washer for hours.  When we awoke from our sleep, we were covered in mosquito bites.  I had seen one and killed it before we went to sleep, but apparently there were a few.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r177860688-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1542,6 +2346,42 @@
     <t>Not sure what it takes for a estwestern motel to earn the "PLUS" rating, but this motel definetly qualifies. Nice oversized room, easy access to area business..Overall a very enjoyable place to work from.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r168722855-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>168722855</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Rates are up - my last visit!</t>
+  </si>
+  <si>
+    <t>We have stayed many times in the past, rates left us flexible for other Deer Park Texas attractions and restaurants.  But the area has added Hampton and Holiday and more and the Best Western rates are up by 40%.  Too much to continue choosing Best Western.  Yes the beds are still comfortable, but the extras don't match the rate. Sad - Too Bad - We will choose Hampton or Holiday next time. We will pay more and expect more....and we will get it from the 'other' guys. Sorry Best Western, so long.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed many times in the past, rates left us flexible for other Deer Park Texas attractions and restaurants.  But the area has added Hampton and Holiday and more and the Best Western rates are up by 40%.  Too much to continue choosing Best Western.  Yes the beds are still comfortable, but the extras don't match the rate. Sad - Too Bad - We will choose Hampton or Holiday next time. We will pay more and expect more....and we will get it from the 'other' guys. Sorry Best Western, so long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r167128841-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>167128841</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Enjoyed my night stay</t>
+  </si>
+  <si>
+    <t>The morning manager was very courteous and helpful during my stay. Hotel is right off the highway about a mile south on Center street in Deer Park. Great location for the plants and businesses in the area. Restaurants are close at hand and a good variety more nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>The morning manager was very courteous and helpful during my stay. Hotel is right off the highway about a mile south on Center street in Deer Park. Great location for the plants and businesses in the area. Restaurants are close at hand and a good variety more nearby.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r162053816-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1584,9 +2424,6 @@
     <t>I stayed at this Best Western over Mother's Day while visiting my son. I needed to stay somewhere that I could get a the Super shuttle to the Hobby Airport for my return flight home. I was plesantly surprised by this hotel stay. Friendly staff, quite, good clean room, shower, and comfortable beds. The full breakfast was nice to have for an early morning checkout time, along with a decent eating area. Although I did not have time to enjoy the pool and hot tub, they looked clean inviting and well kept. I would recommend this hotel to others.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I stayed at this Best Western over Mother's Day while visiting my son. I needed to stay somewhere that I could get a the Super shuttle to the Hobby Airport for my return flight home. I was plesantly surprised by this hotel stay. Friendly staff, quite, good clean room, shower, and comfortable beds. The full breakfast was nice to have for an early morning checkout time, along with a decent eating area. Although I did not have time to enjoy the pool and hot tub, they looked clean inviting and well kept. I would recommend this hotel to others.More</t>
   </si>
   <si>
@@ -1617,6 +2454,45 @@
     <t>I am in my 2nd year of using this Bestwestern Hotel in Deer Park for all my business meetings when in the Houston area. I have found the accomodations to be very good for the price but what keeps me coming back is the exceptional treatment from the staff.It's hard to be away from home weeks at a time, but but when I come here Rush and his team make me feel like family.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r151572086-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>151572086</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>clean, friendly staff, large room and good shower</t>
+  </si>
+  <si>
+    <t>On a business trip, chose this hotel for its location near our client and for the price. It is a good value, since most hotels in the area are in the same price category. Good breakfast and nice lobby lounge.MoreShow less</t>
+  </si>
+  <si>
+    <t>On a business trip, chose this hotel for its location near our client and for the price. It is a good value, since most hotels in the area are in the same price category. Good breakfast and nice lobby lounge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r151478401-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>151478401</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>good bed, good breakfast, quiet</t>
+  </si>
+  <si>
+    <t>Yep we had a good bed, nice, television, quiet night and a good breakfast, what more could there be?  Oh yes, and the price was right. Everything was clean and comfortable. We will stay there again when visiting Deer Park.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Yep we had a good bed, nice, television, quiet night and a good breakfast, what more could there be?  Oh yes, and the price was right. Everything was clean and comfortable. We will stay there again when visiting Deer Park.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r148394947-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1668,6 +2544,45 @@
     <t>This hotel is really nice, the rooms are big with a refrigerator and a microwave in every room. They offer a real breakfast every morning, free. The breakfast is fresh and delicious, Eggs, Sausage, orange juice, cereal and other breakfast items are served. The hotel is located in between a chicken place and a Mc Donalds. Other places to eat are located along both sides of the street. The bed is comfortable and an additional blanket is offered for your comfort. A good place to stay when visiting Houston.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r139318536-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>139318536</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>CON ARTIST</t>
+  </si>
+  <si>
+    <t>I visited Houston on a small back to school trip. We always book at Best Western whenever we travel, so i gave these guys a try. After reading the reviews on this hotel, I decided to chose another hotel down the road. Before going to check in we decided to just go check for ourselves for the things this hotel was being dinged for. Upon our arrival the desk attendant told me the price and I told her I be back. She then quoted another price. After going down a 4th time to $69.99 we decided to stay. We though well just one night and it was 8:30pm so it was a good deal. When we entered the room every negative thing on the blog was confirmed true. We dealt with it cuz we thought we had a good deal. Upon check out @ 9:50am, we were told our rate had changed over night. The new daytime desk attendant decided to change our rate because we had a double room and 5 people stayed so our new rate was $99.99. We told her the night lady gave us the $69.99 rate so we would stay and she needed to call her to confirm. She called and the lady confirmed but the day lady still wanted to charge more cause the rate was to low. Long story short, they called the police dept. and they had to take the $69.99 rate...I visited Houston on a small back to school trip. We always book at Best Western whenever we travel, so i gave these guys a try. After reading the reviews on this hotel, I decided to chose another hotel down the road. Before going to check in we decided to just go check for ourselves for the things this hotel was being dinged for. Upon our arrival the desk attendant told me the price and I told her I be back. She then quoted another price. After going down a 4th time to $69.99 we decided to stay. We though well just one night and it was 8:30pm so it was a good deal. When we entered the room every negative thing on the blog was confirmed true. We dealt with it cuz we thought we had a good deal. Upon check out @ 9:50am, we were told our rate had changed over night. The new daytime desk attendant decided to change our rate because we had a double room and 5 people stayed so our new rate was $99.99. We told her the night lady gave us the $69.99 rate so we would stay and she needed to call her to confirm. She called and the lady confirmed but the day lady still wanted to charge more cause the rate was to low. Long story short, they called the police dept. and they had to take the $69.99 rate plus taxs (because the paper work stated this rate). The manager and day attendant decided cause we paid the quoted rate they would put criminal trepassing charge against all the adults with us. After all this we didn't get to leave until 11:15am and was escorted off property by the police dept. Soooo embrassing-- first time ever dealing with something like this. Not to mention our kids was so scared and upset cause of the police presents.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I visited Houston on a small back to school trip. We always book at Best Western whenever we travel, so i gave these guys a try. After reading the reviews on this hotel, I decided to chose another hotel down the road. Before going to check in we decided to just go check for ourselves for the things this hotel was being dinged for. Upon our arrival the desk attendant told me the price and I told her I be back. She then quoted another price. After going down a 4th time to $69.99 we decided to stay. We though well just one night and it was 8:30pm so it was a good deal. When we entered the room every negative thing on the blog was confirmed true. We dealt with it cuz we thought we had a good deal. Upon check out @ 9:50am, we were told our rate had changed over night. The new daytime desk attendant decided to change our rate because we had a double room and 5 people stayed so our new rate was $99.99. We told her the night lady gave us the $69.99 rate so we would stay and she needed to call her to confirm. She called and the lady confirmed but the day lady still wanted to charge more cause the rate was to low. Long story short, they called the police dept. and they had to take the $69.99 rate...I visited Houston on a small back to school trip. We always book at Best Western whenever we travel, so i gave these guys a try. After reading the reviews on this hotel, I decided to chose another hotel down the road. Before going to check in we decided to just go check for ourselves for the things this hotel was being dinged for. Upon our arrival the desk attendant told me the price and I told her I be back. She then quoted another price. After going down a 4th time to $69.99 we decided to stay. We though well just one night and it was 8:30pm so it was a good deal. When we entered the room every negative thing on the blog was confirmed true. We dealt with it cuz we thought we had a good deal. Upon check out @ 9:50am, we were told our rate had changed over night. The new daytime desk attendant decided to change our rate because we had a double room and 5 people stayed so our new rate was $99.99. We told her the night lady gave us the $69.99 rate so we would stay and she needed to call her to confirm. She called and the lady confirmed but the day lady still wanted to charge more cause the rate was to low. Long story short, they called the police dept. and they had to take the $69.99 rate plus taxs (because the paper work stated this rate). The manager and day attendant decided cause we paid the quoted rate they would put criminal trepassing charge against all the adults with us. After all this we didn't get to leave until 11:15am and was escorted off property by the police dept. Soooo embrassing-- first time ever dealing with something like this. Not to mention our kids was so scared and upset cause of the police presents.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r131702732-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>131702732</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Friendly and conveniently located to ALL Houston attractions!!!</t>
+  </si>
+  <si>
+    <t>This hotel was older, but everything was so clean.  The staff was friendly and directed us to nearby sites.  This hotel was about 25 minutes from NASA, 10 minutes from Sylvan Beach (a nice man made beach/park), 10 minutes from Battleship TX and San Jacinto Monument and about 20 minutes or so from Kemah!  Ideal location and quiet, non smoking rooms with complimentary breakfast and wonderful little pool! I can't say enough GREAT things about this hotel and we WILL be staying there again if and when we return to Houston!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r128624553-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1725,6 +2640,54 @@
     <t>We left here a couple of hours ago for a day trip. I must say it was wonderful I stayed all day!!! It was comfortable and homey I am use to being home all of the time so it was nice to feel comfortable everyone was very nice!!! It was a wonderful experience and we will be going back soon!!! they are really nicely updated also nice big tv we enjoyed it :)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r121685289-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>121685289</t>
+  </si>
+  <si>
+    <t>12/12/2011</t>
+  </si>
+  <si>
+    <t>Quality Service!</t>
+  </si>
+  <si>
+    <t>The hotel is excellent. Rooms are kept clean and up to date. Looks like they have just done a lot of renovations and that is apparent. The staff is VERY nice, helpful and knowledgable. Very Centrally located with lots of good restaurants around. The breakfast quality was outstanding and it was ready on time, every time.I love staying and I would highly recommend this hotel to everyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>BWDPInn, Guest Relations Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2011</t>
+  </si>
+  <si>
+    <t>The hotel is excellent. Rooms are kept clean and up to date. Looks like they have just done a lot of renovations and that is apparent. The staff is VERY nice, helpful and knowledgable. Very Centrally located with lots of good restaurants around. The breakfast quality was outstanding and it was ready on time, every time.I love staying and I would highly recommend this hotel to everyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r120781979-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>120781979</t>
+  </si>
+  <si>
+    <t>11/19/2011</t>
+  </si>
+  <si>
+    <t>stay in deer park</t>
+  </si>
+  <si>
+    <t>this was the second time we stayed here before a cruise, close to the boardwalk and not to far from galveston, Its quiet and clean with a great breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>BWDPInn, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 15, 2011</t>
+  </si>
+  <si>
+    <t>this was the second time we stayed here before a cruise, close to the boardwalk and not to far from galveston, Its quiet and clean with a great breakfast.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r114745279-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1743,12 +2706,6 @@
     <t>June 2011</t>
   </si>
   <si>
-    <t>BWDPInn, Guest Relations Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 15, 2011</t>
-  </si>
-  <si>
-    <t>Responded December 15, 2011</t>
-  </si>
-  <si>
     <t>My family and I stayed here for 2 nights this week as we were in town visiting my home town. The rooms are pretty nice for a Best Western, obviously have been redone/updated recently with new furniture. However upon entering the room we were overcome with a VERY VERY potent smell of what what clearly mildew. We had out premature baby with us, which made me a little worried. I went to the front desk after a few hours later and we were all starting to feel a little nausious. I asked the girl at the front desk if the place had flooded in the last big hurricane (i know the town well) and she said she was not employed at the time. She was nice enough to let me go and check out 2 other rooms (one was the room right under ours on the 1st floor &amp; the other on the other side of the hotel) one was FAR worse smelling than ours, the other about the same. When I came back to return those hotel card/keys the owner/manager/man was at the desk. when i told him that the other rooms were more smelly he just said "no, i dont know what your talking about" I asked him if the place flooded, and he said yes, through the roof but everything was redone. He is right that things were redone, but the mildew is still there. you can...My family and I stayed here for 2 nights this week as we were in town visiting my home town. The rooms are pretty nice for a Best Western, obviously have been redone/updated recently with new furniture. However upon entering the room we were overcome with a VERY VERY potent smell of what what clearly mildew. We had out premature baby with us, which made me a little worried. I went to the front desk after a few hours later and we were all starting to feel a little nausious. I asked the girl at the front desk if the place had flooded in the last big hurricane (i know the town well) and she said she was not employed at the time. She was nice enough to let me go and check out 2 other rooms (one was the room right under ours on the 1st floor &amp; the other on the other side of the hotel) one was FAR worse smelling than ours, the other about the same. When I came back to return those hotel card/keys the owner/manager/man was at the desk. when i told him that the other rooms were more smelly he just said "no, i dont know what your talking about" I asked him if the place flooded, and he said yes, through the roof but everything was redone. He is right that things were redone, but the mildew is still there. you can see about 1 foot of sheetrock that was carved out at the top of the walls (not the roof).  so you can see that cosmetically the place is ok, but in all seriousness....if you have any heath related problems, asthma, lungs, this is NOT the place for you. I REALLY is overwhelming with a mildew smell.More</t>
   </si>
   <si>
@@ -1767,9 +2724,6 @@
     <t>Went to the NHRA dragraces and stayed here in Deer Park. Bed was huge and comfortable, service was quick and nice. Good hot full breakfast. Clean Rooms !! Will stay here again for the dragraces again next year.MoreShow less</t>
   </si>
   <si>
-    <t>BWDPInn, Manager at Best Western Deer Park Inn &amp; Suites, responded to this reviewResponded December 15, 2011</t>
-  </si>
-  <si>
     <t>Went to the NHRA dragraces and stayed here in Deer Park. Bed was huge and comfortable, service was quick and nice. Good hot full breakfast. Clean Rooms !! Will stay here again for the dragraces again next year.More</t>
   </si>
   <si>
@@ -1789,6 +2743,45 @@
   </si>
   <si>
     <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r6688742-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>6688742</t>
+  </si>
+  <si>
+    <t>01/24/2007</t>
+  </si>
+  <si>
+    <t>Well Worth It</t>
+  </si>
+  <si>
+    <t>For the price, this hotel is definately worth it. Even though it has rooms entering throught the outside, it is a very pleasant hotel.  The staff here made me feel very comfortable and even brought me up a toothbrush and comb, when I offered to come down to pick them up.  The housekeepers were great too, they did not bother me when I had a "Do Not Disturb" sign up, and when I left the room, i asked if they could service my room, while I was away, and they did. The hotel even had a shoe shine in the lobby so I can polish my work shoes before I headed out to work,MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>For the price, this hotel is definately worth it. Even though it has rooms entering throught the outside, it is a very pleasant hotel.  The staff here made me feel very comfortable and even brought me up a toothbrush and comb, when I offered to come down to pick them up.  The housekeepers were great too, they did not bother me when I had a "Do Not Disturb" sign up, and when I left the room, i asked if they could service my room, while I was away, and they did. The hotel even had a shoe shine in the lobby so I can polish my work shoes before I headed out to work,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d73628-r5932920-Best_Western_Deer_Park_Inn_Suites-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>5932920</t>
+  </si>
+  <si>
+    <t>10/08/2006</t>
+  </si>
+  <si>
+    <t>Great Quality Accomodation</t>
+  </si>
+  <si>
+    <t>Great Quality Place!Stayed here the past 2 weeks on business travel.Large rooms (suite) with fridge, MW, and desk.Very clean, and tastefully furnished. Free Hi-speed Internet in the room.Terriffic alternative to Corp-rate chain in SE Houston/Hobbyarea.Will stay here again!</t>
+  </si>
+  <si>
+    <t>September 2006</t>
   </si>
 </sst>
 </file>
@@ -2384,31 +3377,41 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -2424,7 +3427,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2433,25 +3436,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2463,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2485,62 +3488,52 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
         <v>80</v>
       </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>81</v>
       </c>
-      <c r="O5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>82</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>83</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -2556,34 +3549,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2595,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
         <v>91</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>92</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -2617,62 +3610,52 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>96</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>97</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
         <v>98</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>99</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>100</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -2688,34 +3671,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s">
-        <v>106</v>
-      </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2727,7 +3710,7 @@
         <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -2737,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
         <v>108</v>
-      </c>
-      <c r="X8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -2759,46 +3742,46 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>112</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>113</v>
       </c>
-      <c r="K9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" t="s">
-        <v>115</v>
-      </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -2808,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -2830,62 +3813,52 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
         <v>120</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>121</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>122</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
         <v>123</v>
       </c>
-      <c r="L10" t="s">
+      <c r="X10" t="s">
         <v>124</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
-      <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="Y10" t="s">
         <v>125</v>
-      </c>
-      <c r="X10" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -2901,34 +3874,34 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>129</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>130</v>
       </c>
-      <c r="K11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" t="s">
-        <v>132</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2950,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -2972,56 +3945,62 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
         <v>137</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>138</v>
       </c>
-      <c r="J12" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" t="s">
-        <v>140</v>
-      </c>
-      <c r="L12" t="s">
-        <v>141</v>
-      </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
       <c r="S12" t="n">
         <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -3037,47 +4016,43 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
         <v>146</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>147</v>
       </c>
-      <c r="J13" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" t="s">
-        <v>150</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>151</v>
-      </c>
       <c r="O13" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -3086,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -3108,46 +4083,46 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
         <v>155</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" t="s">
-        <v>158</v>
-      </c>
-      <c r="L14" t="s">
-        <v>159</v>
-      </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -3157,13 +4132,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -3179,7 +4154,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3188,49 +4163,53 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -3246,7 +4225,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3255,53 +4234,53 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
         <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="X16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
@@ -3317,7 +4296,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3326,37 +4305,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -3366,13 +4345,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="X17" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="Y17" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
@@ -3388,7 +4367,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3397,39 +4376,53 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="X18" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="Y18" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
@@ -3445,7 +4438,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3454,25 +4447,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3494,13 +4487,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="X19" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
@@ -3516,7 +4509,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3525,43 +4518,47 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="X20" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
@@ -3577,7 +4574,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3586,43 +4583,53 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="X21" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
@@ -3638,7 +4645,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3647,37 +4654,37 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -3687,13 +4694,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -3709,7 +4716,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3718,33 +4725,33 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -3754,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="X23" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="Y23" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -3776,7 +4783,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3785,53 +4792,53 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
         <v>3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>235</v>
-      </c>
-      <c r="O24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
       </c>
       <c r="Q24" t="n">
         <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="X24" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
@@ -3847,7 +4854,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3856,53 +4863,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="X25" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
@@ -3918,7 +4921,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3927,49 +4930,53 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s">
-        <v>116</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="X26" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Y26" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
@@ -3985,7 +4992,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3994,49 +5001,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="X27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="Y27" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
@@ -4052,7 +5059,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -4061,53 +5068,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="X28" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="Y28" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -4123,7 +5120,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -4132,31 +5129,31 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
         <v>5</v>
@@ -4172,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
@@ -4194,7 +5191,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4203,47 +5200,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>293</v>
-      </c>
-      <c r="O30" t="s">
-        <v>116</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="X30" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
@@ -4259,7 +5248,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4268,25 +5257,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J31" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="K31" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="O31" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4308,13 +5297,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>303</v>
+        <v>164</v>
       </c>
       <c r="X31" t="s">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c r="Y31" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
@@ -4330,7 +5319,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4339,53 +5328,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="J32" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="X32" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
@@ -4401,7 +5386,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4410,53 +5395,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s">
-        <v>116</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="X33" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="Y33" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
@@ -4472,7 +5447,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4481,53 +5456,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="X34" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="Y34" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
@@ -4543,7 +5508,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4552,53 +5517,43 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s">
-        <v>116</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>339</v>
+        <v>164</v>
       </c>
       <c r="X35" t="s">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="Y35" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36">
@@ -4614,7 +5569,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4623,53 +5578,53 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="J36" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K36" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O36" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
         <v>3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="X36" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="Y36" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37">
@@ -4685,7 +5640,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4694,37 +5649,37 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="J37" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="O37" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -4734,13 +5689,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>355</v>
+        <v>164</v>
       </c>
       <c r="X37" t="s">
-        <v>356</v>
+        <v>165</v>
       </c>
       <c r="Y37" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38">
@@ -4756,7 +5711,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4765,53 +5720,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="J38" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="K38" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="O38" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="X38" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="Y38" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39">
@@ -4827,7 +5778,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4836,38 +5787,34 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="J39" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
         <v>3</v>
       </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>4</v>
@@ -4876,13 +5823,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="X39" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="Y39" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
@@ -4898,7 +5845,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4907,53 +5854,53 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="J40" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>380</v>
+        <v>164</v>
       </c>
       <c r="X40" t="s">
-        <v>381</v>
+        <v>165</v>
       </c>
       <c r="Y40" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41">
@@ -4969,7 +5916,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4978,25 +5925,25 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5004,8 +5951,12 @@
       <c r="Q41" t="n">
         <v>5</v>
       </c>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>5</v>
@@ -5014,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="X41" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="Y41" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42">
@@ -5036,7 +5987,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -5045,53 +5996,53 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="J42" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="K42" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="O42" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="X42" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="Y42" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43">
@@ -5107,7 +6058,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -5116,53 +6067,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="J43" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="K43" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>406</v>
+        <v>164</v>
       </c>
       <c r="X43" t="s">
-        <v>407</v>
+        <v>165</v>
       </c>
       <c r="Y43" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44">
@@ -5178,7 +6125,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -5187,43 +6134,49 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="J44" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="K44" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="X44" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="Y44" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45">
@@ -5239,7 +6192,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5248,53 +6201,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="J45" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="K45" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="X45" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="Y45" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46">
@@ -5310,7 +6259,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5319,32 +6268,38 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="J46" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="K46" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="L46" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
       <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>4</v>
@@ -5352,10 +6307,14 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>412</v>
+      </c>
+      <c r="X46" t="s">
+        <v>413</v>
+      </c>
       <c r="Y46" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47">
@@ -5371,7 +6330,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5380,38 +6339,32 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="J47" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="K47" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="L47" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="O47" t="s">
-        <v>72</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
         <v>5</v>
       </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -5419,10 +6372,14 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>412</v>
+      </c>
+      <c r="X47" t="s">
+        <v>413</v>
+      </c>
       <c r="Y47" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48">
@@ -5438,7 +6395,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5447,49 +6404,43 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="J48" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="K48" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="L48" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>4</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>426</v>
+      </c>
+      <c r="X48" t="s">
+        <v>427</v>
+      </c>
       <c r="Y48" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49">
@@ -5505,7 +6456,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5514,34 +6465,34 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="J49" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="K49" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="L49" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="O49" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5554,13 +6505,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="X49" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="Y49" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50">
@@ -5576,7 +6527,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5585,53 +6536,47 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="J50" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="K50" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="L50" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
-      </c>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="X50" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="Y50" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51">
@@ -5647,7 +6592,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5656,53 +6601,53 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="J51" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="K51" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="L51" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>468</v>
+        <v>306</v>
       </c>
       <c r="O51" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="X51" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="Y51" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52">
@@ -5718,7 +6663,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5727,43 +6672,53 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="J52" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="K52" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="L52" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>477</v>
+        <v>306</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
-      </c>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="X52" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="Y52" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53">
@@ -5779,7 +6734,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5788,37 +6743,31 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="J53" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="K53" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="L53" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="O53" t="s">
-        <v>72</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
@@ -5828,13 +6777,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="X53" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="Y53" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54">
@@ -5850,7 +6799,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5859,53 +6808,53 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="J54" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="K54" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="L54" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="O54" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
         <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="X54" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="Y54" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55">
@@ -5921,7 +6870,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5930,34 +6879,34 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="J55" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="K55" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="L55" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -5970,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="X55" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="Y55" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56">
@@ -5992,7 +6941,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -6001,25 +6950,25 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="J56" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="K56" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="L56" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="O56" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6041,13 +6990,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="X56" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="Y56" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57">
@@ -6063,7 +7012,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -6072,53 +7021,43 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="J57" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="K57" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="L57" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="O57" t="s">
-        <v>522</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>3</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3</v>
-      </c>
-      <c r="S57" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>4</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="X57" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="Y57" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58">
@@ -6134,7 +7073,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -6143,37 +7082,37 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="J58" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="K58" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="L58" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="O58" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
@@ -6183,13 +7122,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="X58" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="Y58" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59">
@@ -6205,7 +7144,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -6214,49 +7153,53 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="J59" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="K59" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="L59" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="O59" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
         <v>4</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>519</v>
+      </c>
+      <c r="X59" t="s">
+        <v>520</v>
+      </c>
       <c r="Y59" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60">
@@ -6272,7 +7215,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6281,37 +7224,37 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="J60" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="K60" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="L60" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
         <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
@@ -6320,10 +7263,14 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>527</v>
+      </c>
+      <c r="X60" t="s">
+        <v>528</v>
+      </c>
       <c r="Y60" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61">
@@ -6339,7 +7286,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6348,28 +7295,28 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="J61" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="K61" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="L61" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>544</v>
+        <v>393</v>
       </c>
       <c r="O61" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
         <v>5</v>
@@ -6378,7 +7325,7 @@
         <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -6387,10 +7334,14 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>535</v>
+      </c>
+      <c r="X61" t="s">
+        <v>536</v>
+      </c>
       <c r="Y61" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="62">
@@ -6406,7 +7357,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6415,33 +7366,37 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="J62" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="K62" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="L62" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
-      </c>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>393</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
@@ -6450,10 +7405,14 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>535</v>
+      </c>
+      <c r="X62" t="s">
+        <v>536</v>
+      </c>
       <c r="Y62" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63">
@@ -6469,7 +7428,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6478,49 +7437,53 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="J63" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="K63" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="L63" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>560</v>
+        <v>393</v>
       </c>
       <c r="O63" t="s">
-        <v>522</v>
+        <v>63</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
         <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>548</v>
+      </c>
+      <c r="X63" t="s">
+        <v>549</v>
+      </c>
       <c r="Y63" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64">
@@ -6536,7 +7499,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6545,49 +7508,53 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="J64" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="K64" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="L64" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
-      </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>393</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
         <v>5</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="X64" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="Y64" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="65">
@@ -6603,7 +7570,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6612,49 +7579,53 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="J65" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="K65" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="L65" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="O65" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
       </c>
-      <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="X65" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="Y65" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66">
@@ -6670,7 +7641,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6679,22 +7650,26 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="J66" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="K66" t="s">
-        <v>581</v>
+        <v>368</v>
       </c>
       <c r="L66" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
-      <c r="N66" t="s"/>
-      <c r="O66" t="s"/>
+      <c r="N66" t="s">
+        <v>572</v>
+      </c>
+      <c r="O66" t="s">
+        <v>80</v>
+      </c>
       <c r="P66" t="n">
         <v>5</v>
       </c>
@@ -6715,13 +7690,13 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="X66" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Y66" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67">
@@ -6737,58 +7712,3208 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
+        <v>576</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>577</v>
+      </c>
+      <c r="J67" t="s">
+        <v>578</v>
+      </c>
+      <c r="K67" t="s">
+        <v>579</v>
+      </c>
+      <c r="L67" t="s">
+        <v>580</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>572</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>581</v>
+      </c>
+      <c r="X67" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>584</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
         <v>585</v>
       </c>
-      <c r="G67" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="J68" t="s">
         <v>586</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K68" t="s">
         <v>587</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L68" t="s">
         <v>588</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>572</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
         <v>589</v>
       </c>
-      <c r="M67" t="n">
+      <c r="X68" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>592</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>593</v>
+      </c>
+      <c r="J69" t="s">
+        <v>594</v>
+      </c>
+      <c r="K69" t="s">
+        <v>595</v>
+      </c>
+      <c r="L69" t="s">
+        <v>596</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>597</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>598</v>
+      </c>
+      <c r="X69" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>601</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>602</v>
+      </c>
+      <c r="J70" t="s">
+        <v>603</v>
+      </c>
+      <c r="K70" t="s">
+        <v>604</v>
+      </c>
+      <c r="L70" t="s">
+        <v>605</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>606</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>607</v>
+      </c>
+      <c r="X70" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>610</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>611</v>
+      </c>
+      <c r="J71" t="s">
+        <v>612</v>
+      </c>
+      <c r="K71" t="s">
+        <v>613</v>
+      </c>
+      <c r="L71" t="s">
+        <v>614</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>606</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>615</v>
+      </c>
+      <c r="X71" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>618</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>619</v>
+      </c>
+      <c r="J72" t="s">
+        <v>620</v>
+      </c>
+      <c r="K72" t="s">
+        <v>621</v>
+      </c>
+      <c r="L72" t="s">
+        <v>622</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>623</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>624</v>
+      </c>
+      <c r="X72" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>627</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>628</v>
+      </c>
+      <c r="J73" t="s">
+        <v>629</v>
+      </c>
+      <c r="K73" t="s">
+        <v>630</v>
+      </c>
+      <c r="L73" t="s">
+        <v>631</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>623</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>632</v>
+      </c>
+      <c r="X73" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>635</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>636</v>
+      </c>
+      <c r="J74" t="s">
+        <v>637</v>
+      </c>
+      <c r="K74" t="s">
+        <v>638</v>
+      </c>
+      <c r="L74" t="s">
+        <v>639</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>640</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>641</v>
+      </c>
+      <c r="X74" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>644</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>645</v>
+      </c>
+      <c r="J75" t="s">
+        <v>646</v>
+      </c>
+      <c r="K75" t="s">
+        <v>647</v>
+      </c>
+      <c r="L75" t="s">
+        <v>648</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>649</v>
+      </c>
+      <c r="O75" t="s">
+        <v>80</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>650</v>
+      </c>
+      <c r="X75" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>653</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>654</v>
+      </c>
+      <c r="J76" t="s">
+        <v>655</v>
+      </c>
+      <c r="K76" t="s">
+        <v>656</v>
+      </c>
+      <c r="L76" t="s">
+        <v>657</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>658</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>659</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>660</v>
+      </c>
+      <c r="J77" t="s">
+        <v>661</v>
+      </c>
+      <c r="K77" t="s">
+        <v>662</v>
+      </c>
+      <c r="L77" t="s">
+        <v>663</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>658</v>
+      </c>
+      <c r="O77" t="s">
+        <v>307</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>664</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>665</v>
+      </c>
+      <c r="J78" t="s">
+        <v>666</v>
+      </c>
+      <c r="K78" t="s">
+        <v>667</v>
+      </c>
+      <c r="L78" t="s">
+        <v>668</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>669</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>670</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>671</v>
+      </c>
+      <c r="J79" t="s">
+        <v>672</v>
+      </c>
+      <c r="K79" t="s">
+        <v>673</v>
+      </c>
+      <c r="L79" t="s">
+        <v>674</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>675</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>676</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>677</v>
+      </c>
+      <c r="J80" t="s">
+        <v>678</v>
+      </c>
+      <c r="K80" t="s">
+        <v>679</v>
+      </c>
+      <c r="L80" t="s">
+        <v>680</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>681</v>
+      </c>
+      <c r="O80" t="s">
+        <v>80</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>682</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>683</v>
+      </c>
+      <c r="J81" t="s">
+        <v>684</v>
+      </c>
+      <c r="K81" t="s">
+        <v>685</v>
+      </c>
+      <c r="L81" t="s">
+        <v>686</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>687</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>688</v>
+      </c>
+      <c r="X81" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>691</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>692</v>
+      </c>
+      <c r="J82" t="s">
+        <v>693</v>
+      </c>
+      <c r="K82" t="s">
+        <v>694</v>
+      </c>
+      <c r="L82" t="s">
+        <v>695</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>687</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>688</v>
+      </c>
+      <c r="X82" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>697</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>698</v>
+      </c>
+      <c r="J83" t="s">
+        <v>699</v>
+      </c>
+      <c r="K83" t="s">
+        <v>700</v>
+      </c>
+      <c r="L83" t="s">
+        <v>701</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>687</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>702</v>
+      </c>
+      <c r="X83" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>705</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>706</v>
+      </c>
+      <c r="J84" t="s">
+        <v>707</v>
+      </c>
+      <c r="K84" t="s">
+        <v>708</v>
+      </c>
+      <c r="L84" t="s">
+        <v>709</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>710</v>
+      </c>
+      <c r="O84" t="s">
+        <v>80</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>711</v>
+      </c>
+      <c r="X84" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>714</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>715</v>
+      </c>
+      <c r="J85" t="s">
+        <v>716</v>
+      </c>
+      <c r="K85" t="s">
+        <v>717</v>
+      </c>
+      <c r="L85" t="s">
+        <v>718</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>719</v>
+      </c>
+      <c r="O85" t="s">
+        <v>63</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>720</v>
+      </c>
+      <c r="X85" t="s">
+        <v>721</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>723</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>724</v>
+      </c>
+      <c r="J86" t="s">
+        <v>725</v>
+      </c>
+      <c r="K86" t="s">
+        <v>726</v>
+      </c>
+      <c r="L86" t="s">
+        <v>727</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>728</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>729</v>
+      </c>
+      <c r="X86" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>732</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>733</v>
+      </c>
+      <c r="J87" t="s">
+        <v>734</v>
+      </c>
+      <c r="K87" t="s">
+        <v>735</v>
+      </c>
+      <c r="L87" t="s">
+        <v>736</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>737</v>
+      </c>
+      <c r="O87" t="s">
+        <v>80</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>738</v>
+      </c>
+      <c r="X87" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>741</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>742</v>
+      </c>
+      <c r="J88" t="s">
+        <v>743</v>
+      </c>
+      <c r="K88" t="s">
+        <v>744</v>
+      </c>
+      <c r="L88" t="s">
+        <v>745</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>737</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
         <v>2</v>
       </c>
-      <c r="N67" t="s">
-        <v>590</v>
-      </c>
-      <c r="O67" t="s">
-        <v>72</v>
-      </c>
-      <c r="P67" t="n">
+      <c r="R88" t="n">
         <v>3</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="S88" t="n">
         <v>3</v>
       </c>
-      <c r="R67" t="n">
-        <v>4</v>
-      </c>
-      <c r="S67" t="n">
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>746</v>
+      </c>
+      <c r="X88" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>749</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>750</v>
+      </c>
+      <c r="J89" t="s">
+        <v>751</v>
+      </c>
+      <c r="K89" t="s">
+        <v>752</v>
+      </c>
+      <c r="L89" t="s">
+        <v>753</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>754</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>755</v>
+      </c>
+      <c r="X89" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>758</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>759</v>
+      </c>
+      <c r="J90" t="s">
+        <v>760</v>
+      </c>
+      <c r="K90" t="s">
+        <v>761</v>
+      </c>
+      <c r="L90" t="s">
+        <v>762</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>763</v>
+      </c>
+      <c r="O90" t="s">
+        <v>63</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>764</v>
+      </c>
+      <c r="X90" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>767</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>768</v>
+      </c>
+      <c r="J91" t="s">
+        <v>769</v>
+      </c>
+      <c r="K91" t="s">
+        <v>770</v>
+      </c>
+      <c r="L91" t="s">
+        <v>771</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>772</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>773</v>
+      </c>
+      <c r="X91" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>776</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>777</v>
+      </c>
+      <c r="J92" t="s">
+        <v>778</v>
+      </c>
+      <c r="K92" t="s">
+        <v>779</v>
+      </c>
+      <c r="L92" t="s">
+        <v>780</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>772</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
         <v>2</v>
       </c>
-      <c r="T67" t="s"/>
-      <c r="U67" t="n">
+      <c r="Q92" t="n">
         <v>3</v>
       </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s">
-        <v>589</v>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>773</v>
+      </c>
+      <c r="X92" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>782</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>783</v>
+      </c>
+      <c r="J93" t="s">
+        <v>784</v>
+      </c>
+      <c r="K93" t="s">
+        <v>785</v>
+      </c>
+      <c r="L93" t="s">
+        <v>786</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>772</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>773</v>
+      </c>
+      <c r="X93" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>788</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>789</v>
+      </c>
+      <c r="J94" t="s">
+        <v>790</v>
+      </c>
+      <c r="K94" t="s">
+        <v>791</v>
+      </c>
+      <c r="L94" t="s">
+        <v>792</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>793</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>794</v>
+      </c>
+      <c r="X94" t="s">
+        <v>795</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>797</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>798</v>
+      </c>
+      <c r="J95" t="s">
+        <v>799</v>
+      </c>
+      <c r="K95" t="s">
+        <v>800</v>
+      </c>
+      <c r="L95" t="s">
+        <v>801</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>793</v>
+      </c>
+      <c r="O95" t="s">
+        <v>307</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>794</v>
+      </c>
+      <c r="X95" t="s">
+        <v>795</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>803</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>804</v>
+      </c>
+      <c r="J96" t="s">
+        <v>805</v>
+      </c>
+      <c r="K96" t="s">
+        <v>806</v>
+      </c>
+      <c r="L96" t="s">
+        <v>807</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>808</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>809</v>
+      </c>
+      <c r="X96" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>812</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>813</v>
+      </c>
+      <c r="J97" t="s">
+        <v>814</v>
+      </c>
+      <c r="K97" t="s">
+        <v>815</v>
+      </c>
+      <c r="L97" t="s">
+        <v>816</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>808</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>809</v>
+      </c>
+      <c r="X97" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>818</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>819</v>
+      </c>
+      <c r="J98" t="s">
+        <v>820</v>
+      </c>
+      <c r="K98" t="s">
+        <v>821</v>
+      </c>
+      <c r="L98" t="s">
+        <v>822</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>823</v>
+      </c>
+      <c r="O98" t="s">
+        <v>73</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>809</v>
+      </c>
+      <c r="X98" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>825</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>826</v>
+      </c>
+      <c r="J99" t="s">
+        <v>827</v>
+      </c>
+      <c r="K99" t="s">
+        <v>828</v>
+      </c>
+      <c r="L99" t="s">
+        <v>829</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>830</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>831</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>832</v>
+      </c>
+      <c r="J100" t="s">
+        <v>833</v>
+      </c>
+      <c r="K100" t="s">
+        <v>834</v>
+      </c>
+      <c r="L100" t="s">
+        <v>835</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>836</v>
+      </c>
+      <c r="O100" t="s">
+        <v>80</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>837</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>838</v>
+      </c>
+      <c r="J101" t="s">
+        <v>839</v>
+      </c>
+      <c r="K101" t="s">
+        <v>840</v>
+      </c>
+      <c r="L101" t="s">
+        <v>841</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>836</v>
+      </c>
+      <c r="O101" t="s">
+        <v>63</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>842</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>843</v>
+      </c>
+      <c r="J102" t="s">
+        <v>844</v>
+      </c>
+      <c r="K102" t="s">
+        <v>845</v>
+      </c>
+      <c r="L102" t="s">
+        <v>846</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>847</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>849</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>850</v>
+      </c>
+      <c r="J103" t="s">
+        <v>851</v>
+      </c>
+      <c r="K103" t="s">
+        <v>852</v>
+      </c>
+      <c r="L103" t="s">
+        <v>853</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>854</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>855</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>856</v>
+      </c>
+      <c r="J104" t="s">
+        <v>857</v>
+      </c>
+      <c r="K104" t="s">
+        <v>858</v>
+      </c>
+      <c r="L104" t="s">
+        <v>859</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>860</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>861</v>
+      </c>
+      <c r="J105" t="s">
+        <v>862</v>
+      </c>
+      <c r="K105" t="s">
+        <v>863</v>
+      </c>
+      <c r="L105" t="s">
+        <v>864</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>865</v>
+      </c>
+      <c r="O105" t="s">
+        <v>307</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>866</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>867</v>
+      </c>
+      <c r="J106" t="s">
+        <v>868</v>
+      </c>
+      <c r="K106" t="s">
+        <v>869</v>
+      </c>
+      <c r="L106" t="s">
+        <v>870</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>871</v>
+      </c>
+      <c r="X106" t="s">
+        <v>872</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>874</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>875</v>
+      </c>
+      <c r="J107" t="s">
+        <v>876</v>
+      </c>
+      <c r="K107" t="s">
+        <v>877</v>
+      </c>
+      <c r="L107" t="s">
+        <v>878</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>879</v>
+      </c>
+      <c r="O107" t="s">
+        <v>307</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>880</v>
+      </c>
+      <c r="X107" t="s">
+        <v>881</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>883</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>884</v>
+      </c>
+      <c r="J108" t="s">
+        <v>885</v>
+      </c>
+      <c r="K108" t="s">
+        <v>886</v>
+      </c>
+      <c r="L108" t="s">
+        <v>887</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>879</v>
+      </c>
+      <c r="O108" t="s">
+        <v>80</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>888</v>
+      </c>
+      <c r="X108" t="s">
+        <v>881</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>890</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>891</v>
+      </c>
+      <c r="J109" t="s">
+        <v>892</v>
+      </c>
+      <c r="K109" t="s">
+        <v>893</v>
+      </c>
+      <c r="L109" t="s">
+        <v>894</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>895</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>880</v>
+      </c>
+      <c r="X109" t="s">
+        <v>881</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>897</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>898</v>
+      </c>
+      <c r="J110" t="s">
+        <v>899</v>
+      </c>
+      <c r="K110" t="s">
+        <v>900</v>
+      </c>
+      <c r="L110" t="s">
+        <v>901</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>888</v>
+      </c>
+      <c r="X110" t="s">
+        <v>881</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>903</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>904</v>
+      </c>
+      <c r="J111" t="s">
+        <v>905</v>
+      </c>
+      <c r="K111" t="s">
+        <v>906</v>
+      </c>
+      <c r="L111" t="s">
+        <v>907</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>908</v>
+      </c>
+      <c r="O111" t="s">
+        <v>63</v>
+      </c>
+      <c r="P111" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>909</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>910</v>
+      </c>
+      <c r="J112" t="s">
+        <v>911</v>
+      </c>
+      <c r="K112" t="s">
+        <v>912</v>
+      </c>
+      <c r="L112" t="s">
+        <v>913</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>914</v>
+      </c>
+      <c r="O112" t="s">
+        <v>63</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>916</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>917</v>
+      </c>
+      <c r="J113" t="s">
+        <v>918</v>
+      </c>
+      <c r="K113" t="s">
+        <v>919</v>
+      </c>
+      <c r="L113" t="s">
+        <v>920</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>921</v>
+      </c>
+      <c r="O113" t="s">
+        <v>63</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>920</v>
       </c>
     </row>
   </sheetData>
